--- a/deuChatbot/research_result/table_to_json(3000_500).xlsx
+++ b/deuChatbot/research_result/table_to_json(3000_500).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20956,6 +20956,6908 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 구체적인 정보를 부정확하게 전달하고 있습니다. 원본 텍스트에는 실기시험의 세부사항이 명확히 나와 있지만, 생성된 응답은 그러한 정보가 포함되어 있지 않다고 주장하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 원본의 내용을 부정하는 내용이 포함되어 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 질문에 대한 답변으로서 관련성이 낮습니다. 원본 텍스트의 내용을 무시하고 다른 전공의 실기시험에 대한 일반적인 정보로 전환하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 주제를 가지고 있으나, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 약합니다. 원본의 내용을 반영하지 않기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 실기시험에 대한 구체적인 정보를 제공하지 않고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 무시하고 있으며, 주제에 대한 적절한 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.6790642285966579</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보에는 디자인조형학과의 실기시험에 대한 구체적인 내용이 포함되어 있지 않습니다. 다른 전공의 실기 시험이나 일반적인 입시 절차에 대한 정보만을 확인할 수 있습니다.
+디자인조형학과의 경우, 실기 시험이 포함된 입시 과정은 각 대학에서 다소 다르게 운영될 수 있으므로, 정확한 내용을 파악하기 위해서는 해당 학교나 학과의 공식 웹사이트를 참조하거나 입학처에 직접 문의하는 것이 가장 좋습니다.
+만약 다른 전공이나 일반적인 실기 시험에 대한 정보가 필요하다면, 그에 대해 설명 드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 모든 핵심 포인트를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8680731388774733</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 기초디자인과 사고의 전환 중 택1입니다. 각 종목별로 준비물, 실기주제, 화지크기 및 시간이 다르므로, 종목에 따라 설명을 드리겠습니다.
+### 1. 기초디자인
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구.
+- **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.
+- **화지크기**: 켄트지3절.
+- **시간**: 5시간.
+### 2. 사고의 전환
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구.
+- **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 "콜라병과 계절"과 같은 주제가 될 수 있습니다.
+- **화지크기**: 켄트지2절.
+- **시간**: 5시간.
+위와 같이 각 종목에 따라 준비물, 실기주제, 화지크기 및 시간이 다르므로, 선택한 종목에 맞게 준비하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 모든 대회 목록이 포함되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회가 명확하게 구분되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.8978161745803799</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 배드민턴(남)과 축구(남)의 경우, 다음과 같은 대회가 인정대회로 지정되어 있습니다.
+1. **배드민턴(남)**:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. **축구(남)**:
+   -춘계한국고등학교축구연맹전
+   -추계한국고등학교축구연맹전
+   -대한축구협회장배전국고등학교축구대회
+   -문화체육관광부장관기전국고등학교축구대회
+   -문화체육관광부장관배전국고등학교축구대회
+   -백운기전국고등학교축구대회
+   -전국고등축구리그(권역별고교축구리그)
+   -전국고등축구리그왕중왕전
+   -무학기전국고등학교축구대회
+   -청룡기전국고등학교축구대회
+   -백록기전국고등학교축구대회
+   -금강대기전국고등학교축구대회
+   -대통령금배전국고등학교축구대회
+   -금석배전국고등학생축구대회
+   -부산MBC전국고등학생축구대회
+   -K리그 U18 챔피언십
+   -K리그 U18 챔피언십왕중왕전
+이러한 대회의 입상자나 우승자들은 경기지도학과의 모집에 인정받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 내용을 잘 반영하고 있으며, 주제A와 주제B의 항목들을 정확하게 나열하고 있습니다. 그러나 "피망 (토마토)"라는 표현은 원본 텍스트에 없는 정보로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 주제A와 주제B의 항목을 나열하고, 시험 당일의 절차를 설명하는 부분에서도 일관성을 유지하고 있습니다. 다만, 예시로 제시된 "잠자리와 악보"는 원본 텍스트의 예시와 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 직접적으로 다루고 있으며, 관련성이 매우 높습니다. 실기시험의 주제와 절차에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, "피망 (토마토)"와 같은 표현이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 주제와 절차에 대한 설명이 명확하게 연결되어 있습니다. 그러나 예시의 변경으로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "피망 (토마토)"라는 추가 정보는 정확하지 않습니다. 이로 인해 약간의 부정확성이 존재합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행하고 있습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 "피망 (토마토)"와 같은 표현은 의미적으로 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 일부 표현이 약간 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.9158604050761721</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B를 각각 선정하여 연결된 주제로 준비해야 합니다. 예시로 잠자리와 저울이라는 주제가 있을 수 있습니다.
+주제A는 다음과 같습니다:
+- 잠자리
+- 무궁화
+- 피망 (토마토)
+- 고양이
+- 양파
+- 달팽이
+- 오렌지
+주제B는 다음과 같습니다:
+- 악보
+- 줄자
+- 스카치테이프
+- 자물쇠
+- 반코팅장갑
+- 저울
+- 얼음
+당일에는 이 주제들 중에서 각각 1개씩을 추첨하여 연결된 주제를 준비해야 합니다. 예시로 잠자리와 악보가 연결된 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실을 부정하고, 다른 전형에서 출결 점수가 반영된다고 주장하고 있습니다. 이는 원문과 상충되는 정보로, 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 출결 점수가 반영되지 않는다고 명확히 언급하고 있는데, 생성된 응답은 반영된다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 다른 전형에 대한 정보를 제공하고 있지만, 질문의 핵심인 학생부 교과 전형에 대한 정보와는 관련이 적습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 나름의 구조를 가지고 있지만, 원문과의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 그러나 내부적으로는 일관된 구조를 유지하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 다른 전형에 대한 정보를 제공하지만, 질문의 맥락과는 맞지 않아서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.5683160497291238</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 나군 실기/실적(경기실적우수자전형)에서는 출결 상황이 반영됩니다. 결석일수에 따라 다음과 같이 반영점수가 결정됩니다:
+- 0~2일 결석일수: 120점
+- 3~6일 결석일수: 90점
+- 7~12일 결석일수: 60점
+- 13~20일 결석일수: 30점
+- 21일 이상 결석일수: 0점
+따라서 동의대학교 학생부교과 전형에서 출결 점수가 반영되며, 이는 경기실적우수자전형인 나군 실기/실적에서도 포함되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원 수를 9명으로 잘못 기재하였고, 지원 인원과 경쟁률에 대한 정보도 출처와 일치하지 않습니다. 출처에서는 17명을 모집한다고 명시되어 있으나, 생성된 응답에서는 9명으로 잘못 언급되었습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 출처와 상충되는 정보를 포함하고 있습니다. 모집 인원, 지원 인원, 경쟁률 등 모든 정보가 출처와 일치하지 않으므로 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 출처의 질문에 대한 일부 관련 정보를 제공하지만, 모집 인원에 대한 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다. 그러나 지원 인원과 경쟁률에 대한 정보는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 정보의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 정보가 명확하게 제시되어 있습니다. 그러나 출처와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원 수에 대한 정보가 잘못되어 있으며, 출처의 사실과 크게 다릅니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 일부 의미적으로 적절한 정보를 포함하고 있지만, 잘못된 모집 인원 수로 인해 전체적인 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으나, 정보의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.741867117490864</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학의 국어국문학과에서는 가군 일반학생전형으로 9명을 모집합니다. 지원인원은 37명이며, 경쟁률은 4.11입니다. 충원 합격자는 17명이었습니다.
+모집 인원: 9명
+지원 인원: 37명
+경쟁률: 4.11
+충원 합격 (후보순위): 17명</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 28명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.6328171766958349</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다. 
+인문사회과학대학, 영어영문학과, 교직 계열에 대한 정보는 다음과 같습니다:
+- 단과대학: 인문사회과학대학
+- 계열: 인문사회
+- 모집단위: 영어영문학과 - 교직
+- 모집인원: 28명</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 간호학과의 모집 인원에 대한 정확한 정보를 제공하지 않고 있으며, "모집인원 정보는 제공된 데이터에서 확인할 수 없습니다"라는 내용은 사실과 다릅니다. 원문에서는 간호학과의 모집 인원이 22명이라고 명시되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 간호학과의 모집 인원이 명확히 언급되었으나, 생성된 응답은 이를 부정하고 다른 학과의 정보만 나열하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 모집 인원에 대한 질문에 대한 직접적인 답변을 제공하지 않고, 다른 학과의 정보로 대체하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성이 떨어져서 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 모집 인원에 대한 질문에 대한 답변이 아닌 다른 학과의 정보를 나열하고 있어 논리적인 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 간호학과의 모집 인원에 대한 정확한 정보를 제공하지 않으며, 원문과의 사실적 일치가 없습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 질문의 맥락과 맞지 않으며, 간호학과의 모집 인원에 대한 정보가 아닌 다른 학과의 정보로 대체하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 질문에 대한 답변이 아닌 다른 정보를 제공하고 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.5809698694031324</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반학생전형의 모집인원 정보는 제공된 데이터에서 확인할 수 없습니다. 다른 모집단위들의 모집인원은 다음과 같습니다:
+- 임상병리학과 : 정원외 지원 자격에 해당하는 경우, 모집인원이 없음 (최대선발 가능인원: -)
+- 치위생학과 : 정원외 지원 자격에 해당하는 경우, 모집인원이 없음 (최대선발 가능인원: -)
+- 방사선학과 : 정원외 지원 자격에 해당하는 경우, 모집인원이 없음 (최대선발 가능인원: -)
+- 의료경영학과  - 보건의료정보관리교육인증 : 정원외 지원 자격에 해당하는 경우, 최대선발 가능 인원은 1명 이내
+- 식품영양학과  - 교직 : 정원외 지원 자격에 해당하는 경우, 모집인원이 없음 (최대선발 가능인원: -)
+의료보건생활대학 간호학과 나군 일반학생전형의 모집인원 정보가 필요하시다면, 대학 입시 홈페이지를 확인하거나 관계부서에 문의해 보시는 것이 좋을 것 같습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 약간의 공백이 있어 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 작성되었습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.9182423871426053</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점
+이 점수들은 각 등급별로 수능 영어 시험에서 받은 점수를 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 일관된 내용을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 약간의 문장 구조 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7411474507587995</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 
+"2024학년도 고교유형별 지원자격" 항목을 보면, 
+- 농어촌학생전형의 경우 "일반고", "자율고", "특수목적고(과학고, 국제고, 외국어고)", "특성화고(특성(직업), 특성(대안))", "영재학교", "기타", "검정고시"는 지원 가능하지만,
+- "외국고"는 지원 불가능합니다.
+따라서 예술고 학생은 농어촌학생전형으로 지원할 수 없습니다. 다른 전형을 고려해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 정확하게 반영하고 있습니다. 기록과 배점에 대한 정보는 일치하지만, 추가된 테이블 정보는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일관된 정보를 제공하지만, 추가된 테이블 정보는 원본 텍스트와의 일관성을 떨어뜨립니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 핵심 정보를 잘 전달하고 있습니다. 따라서 관련성 점수는 높게 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있어 완벽한 유창성 점수는 아닙니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 테이블 정보가 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보로 인해 정확성 점수가 약간 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되었지만, 일관성과 정확성에서 약간의 문제가 있어 중간 정도의 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 테이블 정보가 혼란을 줄 수 있어 완벽한 이해 가능성 점수는 아닙니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8775528079553249</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218~221cm이며, 이 기록에 대한 배점은 275점입니다.
+이 정보는 다음과 같은 테이블에서 얻을 수 있습니다:
+| 등급 | 제자리 멀리뛰기(여) | Z-런(여) |
+|------|-------------------|----------|
+| 4    | 218~221           | 14.80~14.99   |
+따라서, 레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록은 218~221cm이고, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율이 12%라는 사실을 완전히 무시하고 있으며, 출결 상황에 대한 반영 방식이 확인되지 않았다고 주장하고 있습니다. 이는 명백한 사실 왜곡입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 출결 반영 비율이 12%라고 명시하고 있지만, 생성된 응답은 그에 대한 언급이 없고 다른 모집단위와의 비교를 통해 혼란을 초래하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보인 출결 반영 비율에 대한 직접적인 답변을 제공하지 않으며, 관련 없는 정보로 대체하고 있습니다. 그러나 웹사이트 링크를 제공함으로써 일부 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 부적절함으로 인해 전체적인 흐름이 방해받고 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름을 제공하지 못하고 있습니다. 출결 반영 비율에 대한 정보가 없다는 주장은 원본 텍스트와의 일관성을 해치고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 출결 반영 비율에 대한 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다. 원본 텍스트의 핵심 정보를 완전히 무시하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 전달하지 못하고 있으며, 부적절한 정보로 대체하고 있습니다. 그러나 웹사이트 링크 제공은 일부 적절성을 유지합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부적절함으로 인해 혼란을 초래할 수 있습니다. 원본 텍스트와의 관계가 명확하지 않아 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.583656754961987</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 경기지도학과의 출결 상황에 대한 반영 방식은 확인되지 않았습니다. 다른 모집단위에서는 결석일수에 따라 반영점수가 결정되지만, 경기지도학과의 경우 특정한 기준이 명시되어 있지 않습니다.
+만약 더 자세한 정보를 원하시면, "https://ipsi.deu.ac.kr/main.do" 웹사이트에서 확인해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군에서 물리치료학과가 4명을 모집한다고 명시된 사실을 완전히 부정하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서는 모집 인원이 명확히 제시되었으나, 생성된 응답은 모집 인원이 없다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원본의 핵심 정보인 모집 인원에 대한 언급이 없기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본과의 불일치로 인해 일관된 흐름이 부족합니다. 정보의 일관성이 결여되어 있어 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있어 전반적인 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본의 의미와 맥락을 잘 전달하지 못하고 있으며, 잘못된 정보를 바탕으로 하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해하기 쉬운 구조로 되어 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.7158053035563023</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 물리치료학과에 대한 정보가 제공되지 않았습니다. 나군이나 다군에서 물리치료학과에 대한 모집 인원이 주어졌으나, 가군에서는 해당 학과에 대한 정원 내 모집 인원이 없습니다.
+추가로 필요한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가 정보도 원본의 맥락을 잘 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.5136288411992631</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024년 1월 17일(수)에 진행됩니다.
+추가 정보로, 대기실 및 입실시간 안내는 2024년 1월 12일(금)부터 14:00 이후에 입학안내 홈페이지에서 확인이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 따라서 사실성 점수는 5입니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저 기준이 없다는 내용을 일관되게 전달하고 있습니다. 따라서 일관성 점수는 5입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 최저 기준에 대한 정보를 직접적으로 다루고 있습니다. 따라서 관련성 점수는 5입니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 따라서 유창성 점수는 5입니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 따라서 일관성 점수는 5입니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다. 따라서 정확성 점수는 5입니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다. 따라서 다차원 품질 점수는 5입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다. 따라서 의미 적합성 점수는 5입니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 따라서 이해 가능성 점수는 5입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4583105290360358</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 경우, 제공된 정보에서 수능 최저기준이 명시되어 있지 않습니다. 따라서 수능 최저기준이 없음을 알 수 있습니다.
+만약 더 자세한 정보가 필요하다면, 공식 홈페이지를 방문하여 확인해 보시는 것이 좋습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 동의대학교의 공식 웹사이트에 접속하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "심리학과"만 언급하고 있으며, 다른 신설 학과들(스마트항만물류학과, 창업투자경영학과, 라이프융합학부, 경기지도학과)에 대한 정보가 누락되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 제공된 정보와 일치하지 않으며, 신설된 학과 목록의 일부만을 언급하고 있습니다. 이는 일관성이 부족하다는 것을 의미합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변으로 관련성이 있지만, 전체 목록을 제공하지 않아 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 문장으로 잘 작성되었습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 연결되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 전체 정보를 포함하지 않아 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 응답은 일부 정확한 정보를 포함하고 있지만, 전체 신설 학과 목록을 제공하지 않아 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 전체 맥락을 반영하지 못해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.5529094149549346</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 "심리학과"가 있습니다. 이 정보는 제공된 컨텍스트 내에서 확인되었습니다. 더 궁금한 사항이 있으시다면 추가 질문 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 정확한 정보를 제공하지 않고, 대신 확인할 수 없다는 내용을 담고 있습니다. 이는 원본 텍스트의 사실과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 전형요소 반영비율에 대한 구체적인 내용을 제공하지 않고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 정보가 부족합니다. 그러나 동의대학교의 공식 웹사이트를 언급한 점에서 일부 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 정보의 부족으로 인해 완전한 유창성을 평가하기는 어렵습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트의 정보와 관련이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전형요소 반영비율에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 정보의 제공이 부족합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 정보의 부족으로 인해 명확한 이해를 방해합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.6640921623472755</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)에 대한 정확한 전형요소 반영비율 정보가 제공된 문서 내에서 직접 확인할 수 없습니다. 해당 정보는 일반적으로 각 모집단위 별로 다르게 설정되므로, 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 방문하여 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위를 잘못 기술하고 있습니다. 원문에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 가산점을 적용한다고 명시되어 있지만, 생성된 응답에서는 한의예과만 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원문에서는 여러 모집단위에서 가산점을 적용한다고 했지만, 생성된 응답에서는 한의예과만을 언급하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련이 있지만, 잘못된 정보로 인해 주제에서 벗어나 있습니다. 원문에서 언급된 모집단위에 대한 정보가 누락되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 논리적 흐름이 약간 손상되었습니다. 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 사실관계가 잘못되어 있습니다. 한의예과만을 언급하는 것은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 전반적으로 원문과의 불일치로 인해 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 부적절합니다. 원문에서 언급된 모집단위에 대한 정보가 누락되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7553464836714167</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 한의예과입니다. 한의예과에서는 수학(미적분 또는 기하) 응시자의 경우, 수학 취득 표준점수에 10%의 가산점을 주게 됩니다.
+하지만, 다른 모집단위들에서는 가산점을 적용하지 않습니다. 예를 들어, 예술디자인체육대학(패션디자인학과 제외), 인문사회과학대학, 상경대학 등에서는 수능 가산점이 없습니다.
+따라서, 수능 가산점을 받기 위해서는 한의예과에서 수학(미적분 또는 기하)을 응시해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 성적 반영 방법에 대한 구체적인 내용을 제공하고 있지만, 원본 텍스트에서 언급된 "100% 반영"이라는 핵심 사실을 누락하고 있습니다. 또한, 수능 성적 반영 방법에 대한 설명이 원본 텍스트와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 수능 성적 반영 방법에 대한 설명이 서로 상충합니다. 원본 텍스트는 수능 성적을 100% 반영한다고 명시하고 있지만, 생성된 응답은 특정 영역의 점수를 합산하는 방식으로 설명하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하고 있어 원본 텍스트와 관련이 있지만, 원본 텍스트의 핵심 내용인 "100% 반영"이라는 점을 간과하고 있습니다. 따라서 관련성은 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 전체적인 논리적 흐름이 다소 부족합니다. 수능 성적 반영 방법에 대한 설명이 명확하게 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 수능 성적 반영 방법에 대한 설명이 부정확합니다. 원본 텍스트의 핵심 사실을 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다. 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 수능 성적 반영 방법에 대한 설명을 제공하지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7256929277497546</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+- **국어, 수학(미적분 또는 기하), 영어, 탐구(사회탐구 또는 과학탐구 - 2개 과목 합)** 영역 중 상위 3개 영역의 표준점수 및 등급 점수를 합산한 점수를 ÷ 2하여 반영합니다.
+- **수학(미적분 또는 기하) 응시자**는 수학 표준점수에 10% 가산점을 부여받습니다. 즉, 수학 표준점수 x 0.1을 추가해 합산 점수를 계산합니다.
+이렇게 반영되는 이유는 수능 성적의 균형 잡히고 공정한 평가를 위해 각 영역별로 상위 성적이 반영되도록 하기 위함입니다. 특히, 수학(미적분 또는 기하) 응시자에게 가산점을 부여하여 수학에 대한 공정성을 유지하고자 합니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 날짜와 학교 이름이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.8752520847977998</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 학과들이 제외된다는 사실을 정확하게 반영하고 있습니다. 그러나 "이들 학과는 다른 전형 요소를 반영하거나 특별한 조건을 가지고 있습니다."라는 추가 정보는 원문에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 추가된 정보가 원문과의 일관성을 떨어뜨립니다. 원문에는 그러한 조건이나 요소에 대한 언급이 없기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊습니다. 학과의 제외에 대한 정보는 원문과 직접적으로 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 정보가 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원문에서 제공된 정보에 대해 정확하게 반영하고 있지만, 추가된 정보가 원문에 없는 내용이므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있지만, 추가된 정보가 원문과의 의미적 일관성을 약간 해치는 요소가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달되고 있습니다. 그러나 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.8661209431121373</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외됩니다. 이들 학과는 다른 전형 요소를 반영하거나 특별한 조건을 가지고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다. 추가된 정보도 원본 내용과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다. 모든 정보가 일관되게 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 수능 최저기준에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8313688957856193</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 관련 정보는 다음과 같습니다:
+```
+"전형요소 반영비율": [
+    {
+        "전형 유형": "수능 위주",
+        "전형명": "다군 수능(일반학생전형) 전 모집단위",
+        "모집 인원": 180,
+        "사정 단계": "일괄 합산",
+        "전형요소 반영비율(%)": {
+            "학생부 교과": 0,
+            "출결": 0,
+            "서류": 0,
+            "면접": 0,
+            "실기": 0,
+            "수능": 100
+        },
+        "수능최저기준": "수능최저기준 없음"
+    }
+]
+```
+따라서, 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학부에서 학과로 분리된 내용을 정확히 나열하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 서로 모순되는 내용이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.8590524148123295</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다.
+1. 아동학과 (原来是保育·家政咨询学系)
+2. 금융경영학과 (原来是经济金融保险学系)
+3. 경영정보학과, e비즈니스학과 (原来是信息经营管理学系(经营信息学,e商务学))
+4. 부동산자산경영학부(부동산투자학, 부동산개발경영학) (原来是房地产金融·资产经营管理学系)
+5. 기계공학과, 로봇자동화공학과, 자동차공학과 (原来是机械汽车机器人部品工学系)
+6. 신소재공학과, 고분자나노공학과 (原来是新材料工学系)
+7. 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과 (原来是建筑工学系)
+8. 화학공학과, 환경공학과, 응용화학과 (原来是化学环境工学系)
+9. 의생명공학과, 바이오의약공학과, 식품공학과 (原来是生物应用工学系)
+10. 인간공학과, 제품디자인공학과 (原来是设计工程学系)
+11. 산업경영빅데이터공학과 (原来是产业融合信息技术学系)
+12. 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) (原来是创意软件工学系)
+13. 전기공학과, 전자공학과 (原来是电气电子通信工学系)
+14. 음악학과(클래식, 실용음악, 뉴미디어작곡) (原来是音乐学系)
+위와 같이 학부에서 학과로 분리되었습니다.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원서접수 마감일이 2024년 1월 6일(토) 18시라는 사실을 정확하게 반영하고 있습니다. 그러나 원서접수 시작일인 2024년 1월 3일(수)에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분은 추가적인 정보로 간주될 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원서접수 마감일에 대한 정보를 일관되게 제공하지만, 원서접수 시작일에 대한 정보는 원본 텍스트와 일치하지 않으므로 일관성 점수가 낮아집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일과 관련된 정보를 제공하며, 원본 텍스트의 주요 주제와 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 약간 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 원서접수 마감일에 대한 정확한 정보를 제공하지만, 시작일에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본 텍스트와의 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 다만, 일부 독자에게는 추가된 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.7208325685190577</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수(인터넷)는 2024. 01. 03.(수)부터 2024. 01. 06.(토)까지이며, 마감일은 18시까지입니다.
+원서접수 관련 일정은 다음과 같습니다:
+- 원서접수(인터넷): 2024. 01. 03.(수)～2024. 01. 06.(토) 마감일 18시까지
+자세한 내용은 [입학안내 홈페이지](http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 2024학년도 전형 요소 변화에 대한 정보가 아닌, 다른 전형에 대한 잘못된 정보를 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 전형에 대한 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교의 전형 요소 변화에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용이 부적절하여 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 품질 차원에서 매우 낮은 점수를 받으며, 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있으나, 주제가 잘못되어 있어 전체적인 이해는 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.7167753795704194</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 주로 학과 분리, 학부 통합 및 학과 명칭 변경 등에 따른 것입니다. 특히, 다음과 같은 전형들이 변화를 겪고 있습니다:
+1. **나군 수능(일반학생전형)**: 이전에는 "가군 수능"으로 분류되었으나, 2024년도부터는 "나군 수능"으로 변경되었습니다.
+2. **다군 수능**: 이전에는 "다군 수능"으로 분류되었지만, 2024년도에는 전반적으로 학과별로 나뉘어져 각각의 이름이 바뀌었습니다 (예: 레저스포츠학과, 태권도학과 등).
+3. **나군 실기/실적 위주**: 이전에는 "가군 실기/실적"으로 분류되었으나, 2024년도에는 학과별로 명칭이 바뀌었습니다 (예: 디자인조형학과, 체육학과 등).
+4. **나군 학생부교과**: 이전에는 "나군 학생부교과"로 분류되었으나, 2024년도에는 "아동학과", "심리학과" 등의 신설 학과와 함께 변화가 있었습니다.
+이러한 변화는 각 전형별로 모집 단위와 최대 선발 가능 인원 등에도 영향을 미쳤습니다. 자세한 내용은 제공된 정보를 참고하시거나, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)에서 확인해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 실기 비중이 70%라는 사실을 명확히 전달하고 있습니다. 추가적인 세부 정보도 정확합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 일관된 내용을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 실기 비중에 대한 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 자연스러운 표현이 사용되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.8436165472447181</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 70%의 비중을 차지합니다. 
+상세 정보는 다음과 같습니다:
+- 학생부 교과: 0%
+- 출결: 0%
+- 서류: 0%
+- 면접: 0%
+- 실기: 70%
+- 수능: 30%
+따라서, 동의대학교 2024학년도 가군 실기/실적 전형에서 실기는 70%의 비중을 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.7333993938378662</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에 신설된 학과인 '라이프융합학부'는 세부 전공으로 '스타트업창업투자학', '뷰티비즈니스학', '라이프생활문화학'을 구성하고 있습니다. 
+이 정보는 제공된 문맥에서 직접 추출한 것입니다. 더 자세한 내용이나 변경사항이 있으면 공식 웹사이트를 확인해 보시기 바랍니다: https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '디자인조형학과'와 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 이 두 학과가 언급되지 않았습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. 원본 텍스트에 없는 학과들이 추가되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많아 정확성 점수가 낮습니다. 특히, 추가된 학과들에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 의미와는 다소 차이가 있어 의미적으로 완벽하게 적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6634498154555513</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 실기고사를 요구하는 학과로 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 있습니다.
+이들 학과는 실기고사에 대한 성적을 수능 전형성적 산출방법에서 반영합니다. 따라서 해당 학과를 지원하는 경우 실기고사를 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형에서 지원 가능한 학과를 잘못 전달하고 있습니다. 원문에서는 레저스포츠학과, 태권도학과, 디자인조형학과, 체육학과, 경기지도학과가 지원 가능하다고 명시되어 있지만, 생성된 응답에서는 이들 학과가 지원 불가능하다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 지원 가능한 학과를 나열했음에도 불구하고, 생성된 응답에서는 이들 학과가 지원 불가능하다고 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 낮습니다. 원문에서 지원 가능한 학과를 명시했음에도 불구하고, 잘못된 주장을 하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질은 낮아질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원문과의 불일치로 인해 응답의 일관성이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다릅니다. 지원 가능한 학과를 잘못 전달하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 원문의 맥락을 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 이해도는 낮아질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.7029261541536913</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "디자인조형학과", "체육학과", "레저스포츠학과", "태권도학과"는 지원이 불가능합니다. 이들 학과는 일반학생전형이나 다른 전형에서는 지원 가능하지만, 실기/실적 위주 전형에서는 지원 자격이 없습니다.
+다른 학과들은 해당 전형에서 지원이 가능하므로, 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과 외의 학과를 지원하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공의 나열 방식이나 내용에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 전공에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, "신설"이라는 단어의 사용이 다소 어색하게 느껴질 수 있습니다. 
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.9208737604408573</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다:
+1. 신설 (스타트업창업투자학)
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 정보는 주어진 데이터에서 직접 추출한 것입니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 농어촌학생전형에 대한 언급이 없어서 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 특수목적고등학교 학생의 지원 가능성을 잘 설명하고 있습니다. 다만, 농어촌학생전형에 대한 정보가 누락되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장 구조가 다소 복잡하여 약간의 읽기 어려움이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 약간의 정보 누락으로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 사실적으로 정확하지만, 농어촌학생전형에 대한 정보가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되었으나, 정보 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 세부 사항이 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장 구조가 복잡하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.5469084432177415</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>你是特殊目的高中学生，可以申请동义大学的一般学生入学类型。根据提供的信息，在"고교유형별 지원자격"部分中：
+- 特殊目的高中（科学高、国际高、外语高）：支持申请。
+因此，作为特殊目的高中学生，你可以申请东义大学的一般学生入学类型。如果有更多具体问题或需要进一步确认的信息，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 나군 전형에서 가장 많이 모집하는 학과에 대한 정확한 정보를 제공하지 않고, 오히려 모집 인원에 대한 혼란을 초래합니다. 원본 텍스트에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과라고 명시되어 있지만, 생성된 응답은 이를 무시하고 다른 정보를 제시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 특정 학과가 가장 많이 모집된다고 명시하고 있지만, 생성된 응답은 이를 부정하고 다른 정보를 제시하여 일관성을 잃었습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 정보는 유용할 수 있으나, 질문에 대한 명확한 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 핵심 정보를 명확히 전달하지 못하여 일관성이 떨어집니다. 정보가 분산되어 있어 주제를 따라가기 어려울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히, 모집 인원에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 정보가 포함되어 있습니다. 따라서 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해하기 어렵지 않지만, 정보가 명확하게 정리되지 않아 혼란을 줄 수 있습니다. 주제에 대한 명확한 답변이 부족하여 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.6287212801320383</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인하기 위해서는 각 학과별로 모집 인원을 비교해야 합니다. 하지만 제공된 정보에서는 나군 전형에 대한 모든 학과의 모집 인원이 명시되어 있지 않습니다.
+제공된 정보만으로는 정확한 결론을 내리기 어렵습니다. 만약 더 자세한 정보를 원하신다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 보시거나, 동의대학교 입학처에 직접 문의하시면 됩니다.
+다만, 현재 제공된 정보에서 가장 많은 모집 인원을 가진 학과는 '나군 수능(일반학생전형) 전 모집단위'로 273명이 모집되고 있습니다. 이는 여러 학과를 포함한 전체적인 모집인원으로, 특정 학과의 모집 인원보다는 더 큰 규모입니다.
+따라서, 가장 많이 모집하는 학과를 단순히 '나군 수능(일반학생전형) 전 모집단위'로 볼 수 있습니다. 하지만 이 정보만으로는 특정 학과가 아닌 전체적인 모집인원을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 잘못 전달하고 있습니다. 응답에서는 지원이 가능하다고 언급하고 있으며, 이는 원문과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문에서는 지원이 불가능하다고 명시하고 있지만, 응답에서는 가능하다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 질문에 대한 답변을 제공하고 있습니다. 따라서 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 지원 가능성에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성과 일관성이 매우 낮아 전체적인 품질이 떨어집니다. 관련성은 높지만, 다른 차원에서의 부족함이 많습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.7029070990000528</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생인 경우 동의대학교에서 농어촌학생전형인 '학생부교과(농어촌학생전형)'로 지원이 가능합니다. 
+특수목적고에 속하는 학교 중에서는 과학고, 국제고, 외국어고는 해당 전형으로 지원할 수 있지만, 예술고와 체육고는 지원이 불가능합니다.
+따라서, 특수목적고등학교에서 예술고나 체육고를 제외한 학교에 속하는 경우라면 동의대학교 농어촌학생전형으로 지원하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 구체적인 정보를 제공하고 있으나, 원본 텍스트에서는 해당 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않으며, 여러 가지 부정확한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 합격자 평균 성적에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 성적 정보를 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 정보가 없음을 알리고 있지만, 생성된 응답은 구체적인 성적 정보를 제공하여 주제와 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적인 점이 있어 완전한 일관성을 보이지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계에서 부정확한 정보를 제공하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.6121676713875134</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+- 영어 등급의 평균: 3.77
+- 수능 4개 영역 등급의 평균: 4.49
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 434.70
+이러한 정보를 바탕으로, 소프트웨어공학부의 합격자들은 비교적 높은 성적을 보여주고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 점을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 일관성을 유지하고 있습니다. 두 텍스트 모두 평균 성적에 대한 정보가 없음을 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다. 추가적인 정보 요청에 대한 안내도 포함되어 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 약간의 문장 구조가 다소 복잡할 수 있습니다. 그러나 전반적으로 이해하기 쉬운 문장입니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 다만, 일부 문장이 조금 더 간결하게 표현될 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 다소 복잡할 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.7249270803634044</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초 합격자 평균 성적에 대한 정보는 제공된 데이터에서 확인할 수 없습니다. 소프트웨어공학부에 대한 특정 학과와 관련된 최초합격자의 평균성적은 위에서 나열된 데이터에는 포함되어 있지 않습니다.
+만약 더 자세한 정보를 원하시면, 해당 대학의 입학처 웹사이트 또는 연락처를 통해 확인해 보시는 것이 좋을 것 같습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 추가적인 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 원본 텍스트에 있는 "충원 합격자 3차 이후 발표"에 대한 정보가 누락되었습니다. 또한, "등록장소는 학교 지정은행"이라는 내용은 원본 텍스트에 포함되어 있지 않은 추가 정보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 충원 합격자 발표에 대한 중복된 내용이 있으며, 원본 텍스트의 일부 세부사항이 누락되어 있습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있지만, 추가된 정보가 원본 텍스트와 완전히 일치하지 않기 때문에 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 중복되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 중복된 정보와 누락된 세부사항으로 인해 일관된 구조가 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 중요한 세부사항이 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 정보의 누락과 중복으로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 추가된 정보가 원본의 맥락과 완전히 일치하지 않기 때문에 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 중복된 정보로 인해 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8185761109932818</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+- **최초 합격자 발표 및 등록**: 
+  - 날짜: 2024년 2월 2일(금) 14:00
+  - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+- **충원 합격자 발표 및 등록**:
+  - 첫 번째 충원 합격자 발표 및 등록:
+    - 날짜: 2024년 2월 14일(수) 09:00
+    - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+  - 첫 번째 충원 합격자 발표 및 등록:
+    - 날짜: 2024년 2월 14일(수) 09:00~16:00
+    - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+  - 두 번째 충원 합격자 발표 및 등록:
+    - 날짜: 2024년 2월 15일(목) 09:00
+    - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+  - 두 번째 충원 합격자 발표 및 등록:
+    - 날짜: 2024년 2월 15일(목) 09:00~16:00
+    - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행
+이상의 일정을 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 절차에 대한 설명을 하고 있습니다. 따라서 사실성과 관련하여 정확한 정보를 제공하지 못하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 날짜 정보를 무시하고 일반적인 설명을 하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 응답은 면접고사에 대한 일반적인 정보는 포함하고 있지만, 원본 텍스트의 특정 날짜와 관련된 정보는 포함되어 있지 않아 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 주제를 가지고 있지만, 원본 텍스트의 특정 정보와 연결되지 않아 논리적인 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 면접고사 일정에 대한 구체적인 사실을 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 응답이 부족하여 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 응답의 의미는 적절하지만, 원본 텍스트의 맥락과는 맞지 않아서 의미적으로 완전히 적합하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.4034770420557503</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접고사는 일반적으로 서류심사 후 일정 날짜에 정해집니다. 정확한 날짜와 시간은 나중에 공지될 예정입니다. 따라서 최신 정보를 얻기 위해서는 대학 입학처 웹사이트나 관련 공지를 확인하는 것이 좋습니다. 만약 더 자세한 정보가 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참고해 보세요.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 잘 반영하고 있습니다. 그러나 "수능 최저기준 없음"이라는 표현이 직접적으로 언급되었음에도 불구하고, 응답에서는 "직접적으로 언급되어 있지 않다"는 부분이 다소 모호하게 표현되어 있습니다. 이로 인해 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, "직접적으로 언급되어 있지 않다"는 표현이 원문과 상충하는 부분이 있어 일관성이 떨어집니다. 원문에서는 최저학력 기준이 없다고 명확히 언급하고 있기 때문에, 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 한의예과의 최저학력 기준에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다. 그러나 "직접적으로 언급되어 있지 않다"는 부분이 다소 혼란을 줄 수 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원문에서 제공된 정보와 대체로 일치하지만, "직접적으로 언급되어 있지 않다"는 표현이 사실과 다소 어긋나 있어 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일부 표현에서의 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 내용을 담고 있습니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서의 표현이 혼란을 줄 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.56339752327174</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력 기준에 대한 내용은 직접적으로 언급되어 있지 않습니다. "수능 최저기준" 항목을 보면, "수능최저기준 없음"이라고 표시되어 있습니다.
+이는 한의예과에서 수능 최저 기준이 설정되지 않았음을 의미합니다. 따라서, 한의예과에 지원하려면 수능 점수가 특정한 최저 기준을 충족해야 하는 것은 아니지만, 여전히 수능 성적이 학교의 입학 전형 절차에서 중요한 역할을 합니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 추가적인 정보도 제공되지만, 기본적인 사실은 변하지 않습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 반복적으로 강조하고 있습니다. 따라서 일관성이 높습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 매우 우수하며, 사실성, 일관성, 관련성, 정확성 모두 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.593833066889245</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도에 정시모집을 할 때 수능 최저학력 기준은 없습니다. 각 모집단위별로 수능 위주로 학생들을 선발하며, 수능최저기준이 설정되어 있지 않습니다.
+만약 특정 단과대학이나 모집단위에서 수능 최저학력 기준을 설정하고 있다면, 해당 정보는 제공된 자료 내에 명시되어 있지 않으므로, 공식 웹사이트인 "https://ipsi.deu.ac.kr/main.do"를 참조하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2차 충원합격자 발표일인 2024년 2월 15일을 언급하고 있지만, 3차 이후 충원합격자 발표에 대한 정보가 부정확하게 전달되고 있습니다. 또한, 합격자 등록에 대한 언급은 원본 텍스트에 포함되어 있지 않으므로 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 2차 발표일과 3차 발표일을 언급하고 있지만, 원본 텍스트의 세부 사항과 일치하지 않는 부분이 있습니다. 특히, 합격자 등록에 대한 언급은 원본 텍스트와 일치하지 않으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보를 제공하고 있으나, 원본 텍스트에 포함되지 않은 추가 정보(합격자 등록)에 대한 언급이 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있지만, 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 발표 일정에 대한 일부 정확한 정보를 포함하고 있지만, 3차 발표에 대한 정보가 부정확하고 원본 텍스트에 없는 내용을 포함하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답의 질이 평균적이며, 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 추가된 정보가 원본과의 맥락에서 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.7970920558885454</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일에 충원합격자가 발표됩니다. 이날은 2차와 3차의 충원합격자 발표가 이루어집니다. 또한, 이 날짜에는 합격자 등록도 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 최초 합격자 발표와 관련된 잘못된 정보를 포함하고 있으며, 원본 텍스트의 2차 충원합격자 발표와 3차 이후 발표에 대한 정보를 누락하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없으며, 추가합격자 발표 일정 외에 다른 발표 일정에 대한 정보가 포함되어 있어 혼란을 초래합니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 추가합격자 발표 일정에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용인 충원합격자 발표 일정과는 관련성이 떨어집니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 발표 일정을 포함하고 있지만, 이들 간의 논리적 흐름이 부족하여 일관된 구조를 갖추지 못하고 있습니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 잘못된 날짜와 내용을 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 일치성이 부족합니다. 따라서 다차원 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 관련성이 떨어져 일부 내용이 부적절하게 느껴질 수 있습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확하게 전달됩니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.7408594181642782</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 추가합격자 발표 일정은 다음과 같습니다:
+- **최초 합격자 발표 및 등록**: 
+  - 날짜: 2024. 02. 02.(금) 14:00
+  - 내용: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군의 최초 합격자 발표
+- **추가합격자 발표 및 등록**: 
+  - 날짜: 2024. 02. 14.(수) 09:00
+  - 내용: 충원 합격자 1차 (인터넷) 발표 및 등록
+따라서 추가합격자 발표는 **2024년 2월 14일(수) 09:00**입니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 정보를 제공하지 않고 있으며, 원본 텍스트에서 언급된 내용과 상충하는 부분이 있습니다. 원본 텍스트는 추가 모집이 이루어진다고 명시하고 있지만, 생성된 응답은 그에 대한 언급이 없습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 추가 모집에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 내용과 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 핵심 정보를 놓치고 있습니다. 추가 모집에 대한 정보가 없다는 주장은 원본 텍스트의 핵심 내용을 반영하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해 전체적인 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 중요한 정보를 누락하고 있습니다. 원본 텍스트는 추가 모집이 이루어진다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락을 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.4981777609208918</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보로는 추가 모집에 대한 내용이 없습니다. 각 단과대학 및 모집단위별 정원 내 모집인원은 위에서 나열되었습니다. 만약 추가 모집에 대한 자세한 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌 성인 학습자를 대상으로 하는 입학 전형에 대한 설명을 포함하고 있습니다. 지원 자격과 재직 기간 산정에 대한 정보는 원본 텍스트와 일치하지 않으며, 전형 요소 반영 비율과 제출 서류는 일부 일치하지만, 전체적으로 원본 텍스트의 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 특히 지원 자격과 관련된 정보가 원본 텍스트와 상충하며, 전형의 목적과 관련된 설명이 다릅니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하려고 하지만, 내용이 원본 텍스트와 관련이 적고, 주제에서 벗어난 부분이 많습니다. 그러나 일부 전형 요소와 제출 서류에 대한 정보는 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 이해하기 어려운 부분이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 구조가 있지만, 내용의 일관성이 부족하여 논리적인 흐름이 약간 끊기는 부분이 있습니다. 특히 지원 자격과 관련된 정보가 원본과 다르기 때문에 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 여러 부분에서 다릅니다. 특히 지원 자격과 관련된 정보가 잘못되어 있으며, 전형의 목적에 대한 설명도 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 설명을 시도하고 있지만, 내용이 원본 텍스트와 다르기 때문에 의미적으로 적절하지 않은 부분이 많습니다. 그러나 일부 정보는 여전히 관련이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 내용이 원본과 다르기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6509406899767708</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 하는 입학 전형 중 하나입니다. 주요 특징과 절차를 설명드리겠습니다.
+1. 지원 자격:
+   - 산업체 적용 범위: 국가·지방자치단체 및 공공단체, 근로기준법에 따른 상시근로자 5인 이상 사업체, 4대 보험 중 1개 이상 가입 사업체(창업·자영업자 포함)
+   - 재직기간 산정: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상 필요
+2. 전형 요소 반영 비율:
+   - 서류: 70%
+   - 면접: 30%
+3. 제출 서류:
+   - 고교 졸업(예정)자: 학교생활기록부
+   - 검정고시 출신자: 검정고시 합격증서, 성적증명서, 학교생활기록부 대체 서류 (선택 가능)
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업증명서, 성적증명서, 학교생활기록부 대체 서류 (선택 가능)
+4. 서류 평가 영역:
+   - 공동체역량
+   - 학업역량
+   - 전공적합성
+5. 면접 평가 영역 및 배점:
+   - 학업역량: 180점 (1등급)
+   - 전공적합성: 240점 (1등급)
+6. 부정적 사례:
+   - 학교생활기록부 작성 과정에서의 부정 행위
+   - 동일 내용의 의도적인 반복 기재
+   - 과장된 내용 기재
+   - 학급/단체 단위의 내용 기재
+이러한 절차와 요구 사항을 준수하여 지원하시면 됩니다. 자세한 정보는 "https://ipsi. deu. ac. kr/main. do"를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직기간 산정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 정보가 아닌 다른 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문법적으로는 비교적 잘 작성되었으나, 내용이 원본과 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 구조가 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 모든 평가 기준에서 낮은 점수를 받아, 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있지만, 내용이 원본과 관련이 없기 때문에 전체적으로는 이해하기 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6570923775920935</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. **산업체 적용 범위**:
+   - 국가·지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. **재직기간 산정**:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언과 다른 학교의 정보에 대한 언급이 포함되어 있습니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 내용이 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 특정 날짜와 시간에 대한 정보를 제공하는 반면, 생성된 응답은 일반적인 조언과 다른 정보로 구성되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않지만, 실기고사와 관련된 정보에 대한 언급이 있어 어느 정도 관련성이 있습니다. 그러나 원본 텍스트의 핵심 정보가 누락되어 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다른 언어로 혼합되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트와의 연결이 약해 논리적인 흐름이 부족합니다. 정보가 분산되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 실기고사에 대한 정확한 정보를 제공하지 않습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트의 요구를 충족하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 다소 다르게 해석될 수 있는 부분이 있습니다. 그러나 실기고사와 관련된 정보가 포함되어 있어 의미적으로 적절한 부분도 존재합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 다른 언어로 혼합되어 있어 혼란을 줄 수 있습니다. 그러나 전반적으로 명확한 표현이 많습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4795662965984588</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>2023학년도와 2024학년도에 대한 정보만 제공되어 있습니다. 구체적인 실기고사장소는 학교마다 다를 수 있으므로, 정확한 장소를 확인하려면 본교 입학사정관이나 관련 홈페이지(https://ipsi.deu.ac.kr/main.do)를 참조하시거나 학교 관계자에게 문의하시는 것이 좋습니다. 실기고사는 일반적으로 각 대학에서 직접组织实施的2023和2024学年的信息仅提供了一部分。具体的实考地点因学校而异，因此为了确认准确的地点，请参考学校的招生办公室或相关网站(https://ipsi.德明大学的官方网站)或咨询学校的相关人员。通常情况下，实考会在各大学自己组织进行。
+如果您需要更详细的信息或者有其他问题，可以访问上述链接或直接联系学校招生办公室获取帮助。</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않고, 체육학과의 실기고사 장소에 대한 언급이 없다고 주장하고 있습니다. 그러나 원본 텍스트는 입실시간과 대기실에 대한 정보를 명확히 제공하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 실기고사에 대한 구체적인 정보를 제공하지 않기 때문에 일관성이 부족합니다. 원본 텍스트는 특정 날짜와 시간에 대한 정보를 제공하고 있지만, 생성된 응답은 이를 무시하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 내용을 다루지 않고 있습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 중국어로 작성되어 있어 한국어 사용자에게는 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 언어로 작성되어 있어 일관된 흐름이 부족합니다. 한국어와 중국어가 혼합되어 있어 독자가 이해하기 어려울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 실기고사에 대한 구체적인 정보를 제공하지 않기 때문에 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 다소 동떨어져 있으며, 질문에 대한 적절한 답변을 제공하지 못하고 있습니다. 그러나 일부 정보는 관련이 있을 수 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 여러 언어가 혼합되어 있어 이해하기 어려운 부분이 있습니다. 한국어 사용자에게는 명확하지 않을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.2977458943423877</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 체육학과의 실기고사와 관련된 특정 장소에 대한 언급이 없습니다. 체육학과의 실기고사는 대체로 각 대학에서 직접组织实施的考试地点在哪里？
+根据提供的信息，关于体育学专业的实践考试地点没有具体提及。通常情况下，体育学专业的实践考试会在各个大学自行组织进行，具体的考场位置需要查看各大学的相关通知或网站。建议您访问相关大学的官方网站或者联系招生办公室以获取准确的信息。
+如果您有其他问题或需要进一步的帮助，请随时告诉我。</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 개별 전화 통보를 받을 것이라고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시하고 있으나, 생성된 응답에서는 전화 통보가 있을 것이라고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있지만, 잘못된 정보로 인해 주제와의 관련성이 떨어집니다. 원문에서 다루고 있는 핵심 사항을 정확히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 사실과 일치하지 않습니다. 전화 통보가 이루어지지 않는다는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 관계가 부정확하고 일관성이 없습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락을 잘못 전달하고 있습니다. 전화 통보에 대한 잘못된 정보로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6419545770957819</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보를 받으실 것입니다. 하지만 자세한 일정은 아직 공지되지 않았습니다. 더 정확한 정보를 얻기 위해서는 입학 안내 홈페이지(https://ipsi. deu. ac. kr/main. do)를 확인해 보시거나 관계된 부서에 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있습니다. 원본 텍스트에서 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 잘 전달하고 있으며, 추가적인 세부사항(모집인원 설정 등)을 언급하고 있습니다. 그러나 "최대선발 가능 인원"에 대한 언급은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공합니다. 수시모집 결과에 대한 정보가 없다는 점을 강조하고 있으며, 원본 텍스트의 주장을 잘 지지하고 있습니다. 다만, "모집인원 설정"이라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 매우 관련이 깊습니다. 수시모집 결과에 대한 정보가 없다는 점을 명확히 하고 있으며, 관련 웹사이트를 방문하라는 제안도 포함되어 있어 주제와 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 문장 간의 연결이 조금 더 매끄럽게 이루어질 수 있었던 점이 아쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있습니다. 그러나 "최대선발 가능 인원"에 대한 언급은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보여주며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 약간의 부정확성과 일관성 부족이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 "모집인원 설정"과 같은 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.7435115631323888</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집에 대한 정보가 제공된 문서 내에서 직접적으로 언급되어 있지 않습니다. 해당 학과가 모집인원을 설정했지만, 실제 수시모집 결과(예를 들어 지원자 수, 합격자 수 등)는 문서에서 확인할 수 없습니다.
+문서에서는 경찰행정학과의 최대선발 가능 인원이 표기되어 있지만, 실제 수시모집 결과에 대한 정보는 포함되어 있지 않습니다. 만약 경찰행정학과의 2023학년도 수시모집 결과를 알고 싶다면, 대학 입학처나 관련 웹사이트에서 확인해 보시는 것이 좋습니다.
+더 궁금하신 사항이 있으시면 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 일부 전형에서 수능 응시가 필요하지 않다고 언급하고 있지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 설명하고 있습니다. 따라서 사실관계에 큰 차이가 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 수능 응시가 필수라고 명시하고 있는데, 생성된 응답은 일부 전형에서 수능 응시가 필요하지 않다고 하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 핵심 질문에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 원문과의 연결이 부족하여 논리적 흐름이 다소 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제시한 사실과 상반되는 내용을 포함하고 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 원문과의 불일치가 존재하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 내용이지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.4583521031745079</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024학년도부터 일부 전형에서 수능 응시가 필요하지 않습니다. 예를 들어, 학생부종합(평생학습자전형), 학생부종합(성인학습자(정원내)전형), 학생부종합(성인학습자(정원외)전형) 등에서는 수능 응시가 필요하지 않습니다. 하지만 일반적으로는 수능 응시가 요구되므로, 정확한 지원 자격을 확인하려면 해당 대학의 공식 웹사이트를 참조하시거나 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 정보를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났더라도 정시 지원이 가능하다는 사실을 언급하고 있지만, 평생학습자전형이나 성인학습자전형, 재직자전형에 대한 정보가 추가되어 있어 원문과의 일관성이 떨어진다. 원문에서는 정시 지원 가능성에 대한 명확한 정보만 제공하고 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 추가된 전형에 대한 정보가 원문에서 언급된 내용과 상충할 수 있다. 특히, 정시 지원에 대한 조건이 명확히 제시되지 않아 일관성이 부족하다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 고등학교 졸업 후 지원 가능성에 대한 정보를 제공하고 있지만, 원문에서 강조된 정시 지원 가능성에 대한 정보가 부족하다. 따라서 관련성은 높지만 완전하지 않다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있다. 그러나 원문과의 연결성이 약간 떨어진다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원문에서 제공하는 정보와의 차이가 있어 정확성이 떨어진다. 특히, 전형에 대한 조건이 원문과 다르게 해석될 수 있다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원문과의 일관성 및 정확성이 부족하여 전반적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원문에서 강조된 내용과는 다소 차이가 있다. 전형에 대한 추가 정보가 원문과의 맥락에서 벗어날 수 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.5664564671225965</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024년의 입학전형에 따르면, 평생학습자전형이나 성인학습자전형, 재직자전형인 경우 고등학교 졸업 후 3년 이상의 재직 기간이 필요합니다. 따라서 고등학교를 졸업한지 10년이 지났다면, 이 전형들을 통해 지원 가능할 수 있습니다.
+하지만 정시 모집단위에 지원하려면 해당 단과대학 및 계열, 모집단위의 정원 내에서 여유가 있는지 확인해야 합니다. 또한 각 전형별로 요구되는 서류와 절차가 다르므로, 공식 홈페이지 (http://ipsi. deu. ac. kr)를 참조하거나 입학처에 문의하시기 바랍니다.
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do 페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8061129797869004</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 모집일정은 다음과 같습니다:
+1. **모집인원 확정 공고** (2024. 01. 02.)
+   - 입학안내 홈페이지에서 공고
+2. **원서접수(인터넷)** (2024. 01. 03. ~ 2024. 01. 06.)
+   - 마감일 18시까지
+   - 접수사이트: http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com
+3. **서류 제출** (2024. 01. 03. ~ 2024. 01. 12.)
+   - 마감일 17시까지 도착
+   - 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사** (레저스포츠학과, 태권도학과) (2024. 01. 16.)
+   - 대기실 및 입실시간 안내: 2024. 01. 12. 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사** (디자인조형학과, 체육학과) (2024. 01. 17.)
+   - 대기실 및 입실시간 안내: 2024. 01. 12. 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부** (최초 합격자)
+   - &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02. 14:00
+   - 홈페이지에서 개별 조회 가능
+7. **합격자 발표 및 등록금 납부** (최초 합격자 등록)
+   - 2024. 02. 07. ~ 02. 13.
+   - 은행마감시간 내
+8. **충원 합격자 발표 및 등록**
+   - 1차: 2024. 02. 14. 09:00
+     - 홈페이지에서 개별 조회 가능
+   - 1차: 2024. 02. 14. 09:00 ~ 16:00
+   - 2차: 2024. 02. 15. 09:00
+     - 홈페이지에서 개별 조회 가능
+   - 2차: 2024. 02. 15. 09:00 ~ 16:00
+이 일정은 동의대학교의 정시 모집일정을 요약한 것입니다. 자세한 내용은 입학안내 홈페이지를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 주제를 완벽하게 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.9046694675918442</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고** (2024. 01. 02.)
+   - 입학안내 홈페이지에서 공고가 발표됩니다.
+2. **원서접수(인터넷)** (2024. 01. 03. ~ 2024. 01. 06.)
+   - 마감일은 18시까지이며, 접수 사이트는 [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com)입니다.
+3. **서류 제출** (2024. 01. 03. ~ 2024. 01. 12.)
+   - 마감일은 17시까지 도착해야 합니다.
+   - 접수 사이트에서 우편발송용 표지를 출력하여 부착하거나, 우편으로 제출할 수 있습니다.
+4. **&lt;가&gt;군 실기고사** (레저스포츠학과, 태권도학과) (2024. 01. 16.)
+   - 대기실 및 입실시간 안내는 2024. 01. 12. 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사** (디자인조형학과, 체육학과) (2024. 01. 17.)
+   - 대기실 및 입실시간 안내는 2024. 01. 12. 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부** (2024. 02. 02.)
+   - 최초 합격자 발표는 &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 14:00에 이루어집니다.
+   - 홈페이지에서 개별 조회 가능하며, 고지서를 출력하거나 입학관리팀에서 수령할 수 있습니다.
+7. **합격자 등록** (2024. 02. 07. ~ 02. 13.)
+   - 학교 지정은행에서 납부해야 합니다.
+   - 홈페이지에서 개별 조회 가능하며, 고지서를 출력하거나 입학관리팀에서 수령할 수 있습니다.
+8. **충원 합격자 발표 및 등록** (2024. 02. 14.)
+   - 1차 충원 합격자는 09:00에 발표되며, 09:00 ~ 16:00까지 등록이 가능합니다.
+   - 2차 충원 합격자도 같은 날 09:00에 발표되며, 동일한 시간 내에 등록이 가능합니다.
+위와 같이 동의대학교 정시 모집 일정은 원서접수부터 합격자 발표 및 등록금 납부까지 단계별로 진행됩니다. 자세한 내용은 입학안내 홈페이지를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 명확히 반영하지 않고 있습니다. 오히려 수능 미응시자도 지원이 가능하다는 잘못된 정보를 암시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답은 그와 반대되는 내용을 제시하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성이 떨어집니다. 수능 미응시자의 지원 가능성에 대한 질문에 대한 명확한 답변을 제공하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 수능 미응시자에 대한 정보가 명확하지 않아 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 수능 미응시자가 지원할 수 없다는 사실을 잘못 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 핵심 내용을 잘못 전달하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 이해하고 있습니다. 수능 미응시자의 지원 가능성에 대한 잘못된 해석이 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 원본 텍스트의 내용을 명확히 전달하지 못하고 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.7859432346308892</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교에서 수능 미응시자도 지원이 가능한 정시 모집 전형에 대한 명확한 내용을 찾지 못했습니다. 수능 미응시자의 지원 가능 여부와 관련된 자세한 내용은 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시는 것이 좋겠습니다. 해당 사이트에서 정시 모집 전형의 세부 조건을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전자공학과의 충원 합격이 36명이라고 언급하고 있지만, "충원 합격 차수에 대한 정보가 존재하지 않는다"는 원문과 모순되는 부분이 있습니다. 또한, "충원 합격은 36차까지 이루어졌다"는 정보는 원문에 명시되어 있지 않으므로 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하지 않는 부분이 많습니다. 원문은 충원 합격 차수에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 36차까지 이루어졌다고 주장하고 있습니다. 이는 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하고 있으며, 원문에서 언급된 웹사이트를 참조하라는 내용도 포함되어 있어 관련성이 높습니다. 그러나 원문에서 명시된 "충원 합격 차수에 대한 정보가 존재하지 않는다"는 점을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, "이로 부터"라는 표현은 "이로부터"로 수정되어야 합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름이 있지만, 원문과의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다. 충원 합격 차수에 대한 정보가 없다는 점과 36차까지 이루어졌다는 점이 서로 충돌합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충하는 정보를 포함하고 있습니다. 특히, 충원 합격 차수에 대한 정보가 없다는 원문의 내용을 무시하고 36차까지 이루어졌다고 주장하는 것은 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 요소가 있지만, 사실성과 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 다소 어긋나는 부분이 있으며, 특히 충원 합격 차수에 대한 정보가 없다는 점을 간과하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.7931294428355291</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위에서 전자공학과의 경우, 지원 인원이 105명이고, 충원 합격은 36명이었습니다. 이로 부터 충원 합격은 36차까지 이루어졌습니다.
+하지만 전년도 데이터가 제공되지 않았기 때문에 정확한 전년도 충원 합격 차수를 말씀드릴 수 없습니다. 더 자세한 정보를 얻으시려면 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 포함되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 제공되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본 텍스트는 전화번호를 명시하고 있지만, 생성된 응답은 전화번호가 없다고 잘못 언급하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 전화번호 정보를 무시하고 웹사이트를 방문하라는 제안을 하고 있지만, 원본 텍스트의 핵심 정보인 전화번호에 대한 직접적인 언급이 없기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 흐름을 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호가 포함되어 있다는 사실을 무시하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있으며, 전화번호에 대한 정보가 없다고 주장하는 것은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 표현을 사용하고 있지만, 내용의 정확성 문제로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6919600940241442</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 포함되어 있지 않습니다. "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신 연락처 정보를 확인하실 수 있습니다. 해당 웹사이트에서 입학처 페이지로 이동하시면 전화번호를 찾을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에도 합격자로 인정된다고 주장하지만, 원문에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리된다고 명시하고 있습니다. 따라서 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있습니다. 원문에서는 전화 통화가 되지 않으면 등록 포기자로 처리된다고 명시하고 있는데, 생성된 응답은 전화 통화가 되지 않더라도 합격자로 인정된다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 다르게 해석되고 있으며, 원문에서 전달하고자 하는 메시지와 상충합니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.6488059259286092</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우에도 합격자로 인정됩니다. 이는 동점자 처리기준에서 언급되어 있으며, 최종적으로 합격자 발표 및 등록금 납부 단계를 거쳐야 합니다.
+따라서 3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화가 되지 않더라도 합격자로 인정되며, 해당 학생은 홈페이지에서 개인적으로 조회하거나 입학관리팀에서 고지서를 수령하여 등록금을 납부하고 학교에 등록해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 제출해야 할 서류의 주요 내용을 포함하고 있지만, 일부 세부사항이 누락되거나 잘못된 정보가 포함되어 있습니다. 예를 들어, '고교 졸업증명서'는 6년 과정에 대한 추가 제출서류로 언급되었으나, 원본 텍스트에서는 졸업예정자에 대한 추가 제출서류로 언급되고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 전체적으로 일관성이 부족합니다. 특히, 추가 제출서류에 대한 설명이 원본과 다르게 제시되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 제출해야 할 서류에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 세부사항에서 흐름이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 정확한 세부사항이 누락되거나 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 양호한 품질을 가지고 있으나, 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 세부사항에서 의미가 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 표현이 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.711367086326545</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원시 제출해야하는 서류는 유형에 따라 다르며, 주요 서류들은 다음과 같습니다:
+1. **6년 과정**
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부
+2. **12년 과정**
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부
+3. **추가 제출서류**
+   - 고교 졸업증명서 (6년 과정)
+   - 지원자 본인, 부모의 초본 각 1부 (총 3부) (6년 과정)
+이 외에도 특정 유형에 따라 추가적인 서류가 필요할 수 있으므로, 정확한 요구사항은 해당 대학의 공식 웹사이트를 참조하거나 합격 안내서를 확인하는 것이 좋습니다. 더 자세한 정보는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록을 정확하게 나열하고 있습니다. 그러나 "교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능합니다."라는 추가 정보는 원본 텍스트에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 추가된 발급 방법에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 발급 방법에 대한 정보는 원본에 없으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 추가된 정보가 혼란을 줄 수 있는 가능성이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8502242047501301</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형에서 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능합니다.
+이러한 서류를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 부정확하게 전달하고 있습니다. "선발되지 않는다는 내용을 확인할 수 없습니다"라는 표현은 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 기회균등 전형의 존재 여부에 대한 모호한 진술로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 기회균등 전형의 존재 여부에 대한 잘못된 해석으로 인해 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 논리적 흐름이 다소 부족합니다. 원본 텍스트의 내용을 명확히 반영하지 않아 일관된 구조를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 응답은 원본 텍스트의 사실을 잘못 해석하고 있으며, 기회균등 전형의 존재 여부에 대한 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 어느 정도 적절하지만, 원본 텍스트의 맥락을 잘못 이해하고 있어 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 내용의 정확성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.593400246027508</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 정시 모집에서 저소득 기회균등 전형이 선발되지 않는다는 내용을 확인할 수 없습니다. 추가로 확인하려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해 보시는 것이 좋겠습니다. 해당 사이트에서 최신 정보와 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 최저등급의 절사 여부에 대한 구체적인 정보를 제공하지 않고, 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 절사하지 않는다고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 원본에서 언급된 정보와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있으나, 생성된 응답은 절사하지 않는다고 주장합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 수능 최저등급과 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다. 그러나 주제와 관련된 내용을 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 설명되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 원본에서 제공된 정보와 다르게 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 일부 차원에서 긍정적인 평가를 받을 수 있지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6439160621547496</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급이 나오더라도 그대로 2.5 등급으로 평균산출합니다. 절사(절단점 아래로 내려가는 것)는 하지 않습니다. 즉, 사탐 2 과목의 평균등급은 2.5가 됩니다.
+수능 최저등급에서 사탐 2 과목을 평균산출하는 방법은 다음과 같습니다:
+1. 사탐 2 과목의 등급을 각각 확인합니다.
+2. 그 중 더 낮은 등급을 선택하여 평균산출합니다.
+예를 들어, 사탐 2 과목의 등급이 3등급과 2.5등급이라면:
+- 3등급 = 107점
+- 2.5등급 = 119점 (평균산출)
+따라서 평균은 (107 + 119) / 2 = 113점이 됩니다.
+결론적으로, 2.5 등급을 그대로 사용하여 평균산출합니다. 절사하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 충원 합격자 발표가 3차까지 이루어지며, 각 발표 날짜와 방법에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "첫 번째 충원"과 "두 번째 충원"이라는 표현이 다소 모호하게 느껴질 수 있어, 1차와 2차 발표를 명확히 구분하지 않은 점에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 발표 일정과 방법에 대한 정보가 일치하지만, "전화 통보를 통해 개별 학생들에게 안내됩니다"라는 표현이 원본의 "개별 전화 통보로 발표됩니다"와 약간의 차이가 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 질문에 대한 직접적인 답변을 제공합니다. 발표 일정과 방법에 대한 정보가 잘 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 "같은 날인"이라는 표현이 다소 어색하게 느껴질 수 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달됩니다. 다만, 발표 일정의 흐름이 조금 더 매끄럽게 연결될 수 있었던 점에서 약간의 개선 여지가 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 발표 일정과 방법에 대한 정보가 정확합니다. 그러나 "첫 번째 충원"과 "두 번째 충원"의 표현이 다소 모호하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 잘 수행되고 있습니다. 그러나 약간의 개선이 필요한 부분이 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 발표 일정과 방법에 대한 정보를 적절하게 전달하고 있습니다. 다만, 일부 표현에서 약간의 모호함이 있어 4점으로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 표현이 다소 어색하게 느껴질 수 있어 약간의 개선이 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.7425958043898171</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>2024년 정시 충원 합격자는 총 3차로 발표됩니다. 첫 번째 충원은 2024년 2월 14일(수)에, 두 번째 충원은 같은 날인 2024년 2월 15일(목)에 각각 발표될 예정입니다. 또한 3차 충원은 2024년 2월 15일(목)부터 전화 통보를 통해 개별 학생들에게 안내됩니다.
+따라서 정시 충원 합격자 발표는 총 3차로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 e-비즈니스학과의 정시 모집군과 관련된 정보를 포함하고 있지만, 원본 텍스트에서 제공된 평균 점수와 비교할 때 구체적인 수치나 세부사항이 부족합니다. 또한, 수능 성적이 4.6이라는 점에 대한 해석이 다소 모호하게 표현되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 정시 모집군의 변경 사항과 관련된 정보가 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 주요 내용과는 다소 다른 방향으로 전개되고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 e-비즈니스학과의 수능 성적과 관련된 질문에 대해 적절한 정보를 제공하고 있으나, 원본 텍스트의 주요 포인트와는 약간의 차이가 있습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 표현되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 성적에 대한 정보가 포함되어 있지만, 원본 텍스트의 평균 점수와 비교할 때 정확성이 떨어질 수 있습니다. 특히, 수능 영어 성적에 대한 해석이 다소 부정확하게 표현되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트와의 일관성 및 정확성이 부족하여 다소 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 일부 세부사항에서 다소 모호한 표현이 있어 완벽한 일치를 이루지 못합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 다만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.6052461294363466</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 모집군 변경 사항을 보면, e비즈니스학과는 "가"군에 속합니다. "가"군의 수능 위주 전형에서는 수능 성적이 핵심적인 요소로 반영됩니다.
+e비즈니스학과의 경우, 수능 4개 영역(국어, 수학, 영어, 탐구) 중 표준점수 및 등급점수 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수로 평가됩니다. 따라서 수능 영어 성적이 4.6이면, 이는 영어 등급 점수가 반영될 것입니다.
+평균적으로 수능 영어 4.6은 115점 정도의 등급점수가 됩니다 (참조: 수능 영어영역 등급에 따른 점수 표).
+따라서 e비즈니스학과에서 수능 성적이 4.6이면, 이는 영어 등급 점수로 반영되며, 나머지 국어, 수학, 탐구의 성적을 합산하여 평균 점수를 산출하게 됩니다.
+하지만 정시 전형으로 추가 합격 가능 여부는 다음과 같은 요소들에 따라 결정됩니다:
+1. 모집 인원
+2. 지원 인원
+3. 경쟁률
+4. 해당 단과대학의 수능 최저 기준 (이 정보가 제공되지 않았으므로 확인 필요)
+따라서 정확한 답변을 위해서는 동의대학교 e비즈니스학과 2024학년도 정시 모집의 수능 최저 기준 및 경쟁률 등을 확인해야 합니다. 이 정보를 바탕으로 판단할 수 있습니다.
+더 자세한 정보를 원하시면, https://ipsi. deu. ac. kr/main. do 웹사이트에서 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 영어 등급과 수능 4개 영역 등급 평균을 언급하며, 정시 등급 5.3의 지원자가 합격하기 어려울 수 있다는 점을 잘 반영하고 있습니다. 그러나, 국어국문학과의 평균 점수를 언급하는 부분은 e비즈니스학과와 직접적인 관련이 없으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 합격 가능성에 대한 정보를 제공하지만, 국어국문학과의 평균 점수를 언급함으로써 일관성이 떨어집니다. 이 부분이 없었다면 더 일관된 응답이 되었을 것입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 잘 다루고 있으며, e비즈니스학과의 정시 등급 및 합격 가능성에 대한 내용을 중심으로 구성되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 국어국문학과의 언급이 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 e비즈니스학과의 합격 가능성에 대한 정보를 정확하게 전달하고 있지만, 국어국문학과의 평균 점수 언급이 정확성과 관련하여 약간의 혼란을 초래할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 국어국문학과의 언급으로 인해 약간의 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있지만, 국어국문학과의 언급이 주제와의 관련성을 약간 떨어뜨립니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달됩니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.7584361841013504</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 정시 등급 및 지원 경쟁률을 확인해보겠습니다.
+e비즈니스학과는 일반적으로 수능 영어와 국어, 수학, 탐구 영역에서 높은 점수를 요구합니다. 특히, 영어 등급이 중요하게 작용하므로 정시 등급 5.3을 가진 지원자는 좋은 성적을 보여줘야 합니다.
+2024학년도 인문사회과학대학 국어국문학과의 경우, 평균 수능 4개 영역 표준 변환 점수 합은 약 419.33점이었습니다. 이는 e비즈니스학과의 요구 점수가 상대적으로 높아 보입니다.
+정시 등급 5.3을 가진 지원자가 동의대학교 e비즈니스학과에 최초 합격 가능성은 낮다고 판단할 수 있습니다. 그러나, 정확한 확률을 예측하기 위해서는 e비즈니스학과의 실제 평균 점수와 경쟁률 등을 확인해야 합니다.
+따라서, 더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)에서 e비즈니스학과의 정시 합격 기준을 확인하거나, 입학처에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 38번의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 명시된 "예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다"라는 구체적인 사실을 명확히 반영하지 않고 있습니다. 대신, 일반적인 조언을 제공하고 있어 사실성이 다소 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 예비 38번의 합격 가능성에 대한 명확한 결론을 제시하지 않고 있습니다. 이는 원본 텍스트와의 일관성이 부족하다는 것을 의미합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격 여부에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 예비 38번의 합격 가능성에 대한 직접적인 답변이 부족합니다. 그러나 전반적으로 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 메시지를 명확히 전달하지 못해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 완전히 반영하지 않으며, 예비 38번의 합격 가능성에 대한 구체적인 정보를 제공하지 않습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 사실을 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있지만, 예비 38번에 대한 구체적인 정보가 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.5360958982773543</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 특정 학생의 예비합격 여부를 정확히 판단하기 어렵습니다. 전형별로 지원 자격, 평균 점수, 경쟁률 등이 다르기 때문입니다.
+예비 38번 이정도면 어떤 전형에 지원했는지, 해당 전형의 지원 자격과 평균 점수가 어떻게 되는지 등을 확인해야 합니다. 예를 들어:
+1. **인문사회과학대학 중어중국학과**와 같은 모집단위에서는 경쟁률이 높을 수 있습니다.
+2. **공과대학 기계공학과  교직** 등에서는 지원 자격이 특정 조건을 충족해야 할 수도 있습니다.
+따라서, 구체적인 정보를 바탕으로 판단해야 합니다. 만약 더 많은 정보가 필요하다면, 제공된 데이터를 확인하거나 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 자세한 내용을 확인해 보시는 것이 좋습니다.
+또한, 지원 전형의 특성과 평균 점수, 경쟁률 등을 고려하여 예비합격 가능성을 판단하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있지만, 평균 합격 점수에 대한 정보는 출처 텍스트에 명시된 내용과 일치하지 않습니다. 또한, 영어 등급 4.5 이상이라는 주장은 출처에 명시된 평균 등급 3.37과 관련이 없으므로, 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출처 텍스트의 일부 정보를 반영하고 있지만, 평균 합격 점수에 대한 언급이 출처와 일치하지 않으며, 이로 인해 일관성이 떨어집니다. 그러나 전반적으로 주제는 일관되게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과의 합격 가능성에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 합격 점수와 관련된 정보가 출처와 일치하지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 사실성과 정확성에서 일부 약점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 출처 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 왜곡되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6923662956611389</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44의 영어 등급 점수로 동의대학교 간호학과에 합격할 확률은 매우 낮습니다.
+간호학과는 정원 내 모집 인원이 110명이며, 지원자 중에서 경쟁률이 높을 것으로 예상됩니다. 평균적으로 합격 점수는 영어 등급 4.5 이상이어야 합니다 (평균 3.88 + 표준 편차 0.31).
+현재의 영어 점수가 3.44이므로, 이 점수로는 합격하기 어려울 것으로 보입니다. 그러나 최종 합격 여부는 지원자의 총점뿐만 아니라 다른 요인들 (예: 수능 4개 영역 등급, 가산점 등)에 따라 결정되므로, 모든 가능성은 열어두시는 것이 좋습니다.
+만약 확실한 정보를 얻고자 한다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급을 1.86으로 제시하고 있지만, 원본 텍스트에서는 평균 영어 등급이 2.34로 명시되어 있습니다. 이로 인해 사실관계에 큰 오류가 발생하였고, 다른 정보들도 원본과 일치하지 않아 전반적으로 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 예를 들어, 평균 영어 등급과 경쟁률에 대한 정보가 서로 상충하며, 원본의 내용을 일관되게 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변으로서 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용과는 다소 동떨어진 정보가 포함되어 있습니다. 그러나 전반적으로 주제와 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 일관된 흐름을 가지고 있으나, 원본 텍스트와의 연결이 약해져서 논리적인 일관성이 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 여러 면에서 일치하지 않으며, 특히 평균 영어 등급에 대한 정보가 잘못되어 있습니다. 이로 인해 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있으나, 원본 텍스트의 의미와는 다소 차이가 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 표현이 많습니다. 그러나 일부 정보가 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6643593508145172</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 영어 등급으로 보이는데, 동의대학교 간호학과의 경우 지원 인원이 145명이고 모집인원은 22명입니다. 경쟁률이 매우 높습니다 (6.59).
+간호학과의 평균 영어 등급 점수는 1.86이며, 표준 편차가 0.75입니다. 이는 지원자들 중 상당수가 낮은 영어 점수를 받았음을 의미합니다.
+현재 제시된 성적 (영어 2.52)은 평균보다 높습니다. 그러나 간호학과의 경쟁률이 매우 높기 때문에, 이 점수만으로는 최종 합격을 보장할 수 없습니다. 다른 과목들의 성적과 학생부 등급도 고려되어 결정됩니다.
+따라서, 현재 정보로는 최종 합격 가능성을 낮게 예상합니다. 더 자세한 분석을 위해서는 전체 성적과 학생부 등급 등을 종합적으로 검토해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균을 언급하며, 3.7의 정시 등급이 낮다는 점을 강조하고 있습니다. 그러나 "영어 등급 점수"에 대한 설명이 다소 과장되어 있으며, 실제로는 3.7이 평균보다 낮지만, "상당히 낮은 점수"라는 표현은 주관적일 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 정시 전형의 합격 가능성에 대한 논리를 잘 따릅니다. 그러나 "영어 등급 점수"에 대한 설명이 원본 텍스트의 정보와 완전히 일치하지는 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, "상당히 낮은 점수"라는 표현이 다소 주관적일 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 일부 표현이 다소 주관적일 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6880455524364697</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 영어 등급 점수로 간호학과에 정시 전형으로 합격하기는 어렵다고 볼 수 있습니다. 이유는 다음과 같습니다:
+1. **영어 등급 점수**: 정시 전형에서 간호학과를 지원할 경우, 영어 등급 점수가 중요하게 작용합니다. 3.7의 영어 등급은 상당히 낮은 점수로, 대부분의 대학에서는 더 높은 점수를 요구합니다.
+2. **전형별 경쟁률**: 간호학과는 인기 있는 전공으로, 정시 전형의 경쟁률이 매우 높습니다. 이에 따라 합격 기준점도 상대적으로 높아집니다.
+3. **수능 성적**: 수능 성적은 대부분의 대학에서 중요한 요소로 작용합니다. 특히 수학과 탐구 영역의 성적이 중요하게 고려됩니다. 하지만, 3.7의 영어 등급 점수만으로는 충분한 수능 성적을 보여줄 수 없습니다.
+따라서, 정시 전형으로 간호학과에 합격하기 위해서는 더 높은 영어 등급 점수를 얻거나, 다른 대학에서 지원하거나, 다른 전형(예: 특기자전형, 실기전형 등)을 고려해 보는 것이 좋습니다.
+더 자세한 정보나 조언이 필요하시다면, https://ipsi. deu. ac. kr/main. do를 참조해보시거나, 대학 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 포함하고 있으며, 주어진 성적이 평균보다 높은 점수를 가지고 있다는 점을 언급하고 있습니다. 그러나 영어 성적을 115점으로 변환하는 부분은 명확한 출처가 없고, 수능 4개 영역의 평균 점수에 대한 구체적인 언급이 부족하여 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 추가적인 정보와 조건을 제시하여 혼란을 줄 수 있습니다. 특히, 국어와 수학의 표준 변환 점수를 확인해야 한다는 점은 원본 텍스트에서 제공된 정보와 일치하지 않으며, 이는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 주어진 질문에 대한 직접적인 답변을 제공하며, 간호학과의 정시 모집에 대한 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 혼란을 줄 수 있는 점이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 주어진 성적이 평균보다 높다는 점을 정확하게 반영하고 있지만, 영어 성적의 변환과 관련된 정보는 명확하지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 일부 정보의 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 정보를 제공합니다. 그러나 일부 추가 정보가 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 추가된 정보가 혼란을 줄 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.7134280637045627</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에 대한 정보를 바탕으로 답변 드리겠습니다.
+간호학과는 일반적으로 국어, 수학(미적분 또는 기하), 영어, 탐구 중 상위 3개 영역을 반영합니다. 주어진 성적인 영어 2.58은 115점에 해당합니다 (영어 등급 점수 참조).
+국어와 수학(미적분 또는 기하)의 표준 변환 점수를 확인해야 합니다. 하지만 주어진 정보만으로는 정확한 합격 가능성 판단이 어렵습니다. 2024년 동의대학교 간호학과의 정시 모집에서 국어, 수학(미적분 또는 기하), 영어, 탐구 중 상위 3개 영역을 반영하며, 각 영역별 평균 점수와 표준 편차를 확인해야 합니다.
+2024년 동의대학교 간호학과 정시 모집에 대한 자세한 정보는 https://ipsi. deu. ac. kr/main. do 웹사이트에서 확인해 보시기 바랍니다. 해당 페이지에서는 2024년도 모집에 대한 최신 정보와 평균 점수, 표준 편차 등을 제공하고 있을 것입니다.
+따라서 정확한 합격 가능성 판단을 위해서는 동의대학교 웹사이트에서 최신 정보를 확인하시거나, 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 지원자 수와 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 예비 7번의 합격 가능성에 대한 정보와는 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있으나, 생성된 응답은 합격 가능성이 있다고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 경쟁률을 언급하며 합격 가능성이 있다고 주장하여 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 예비 7번의 합격 가능성에 대한 직접적인 답변을 제공하지 않고 있습니다. 그러나 면접 준비와 서류 평가에 대한 정보는 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 떨어져 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 예비 7번의 합격 가능성에 대한 원본 텍스트의 주장을 무시하고 다른 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성에서 큰 문제가 있으며, 정확성 또한 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 예비 7번의 합격 가능성에 대한 원본의 주장을 무시하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 내용이지만, 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.5858363045307412</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>95명이 지원하였고 경쟁률은 2.71입니다. 게임공학과는 모집인원이 3명이고, 지원 인원은 16명으로 보아 경쟁률은 약 5.33입니다 (16 / 3 = 5.33). 현재의 경쟁률을 보면 충분히 합격할 수 있는 가능성이 있습니다.
+하지만 확실한 것은 면접 성적과 서류 평가 결과에 달려있습니다. 게임공학과는 모집인원이 적기 때문에, 지원자들 간의 경쟁이 치열할 것으로 예상됩니다. 따라서 면접에서 좋은 성적을 받고, 서류 평가에서도 학업역량과 전공적합성에 대한 긍정적인 평가를 받아야 합니다.
+면접에서는 지원동기와 학업계획, 고교 생활 중의 어려움과 해결 방안, 그리고 게임공학과 관련된 관심과 경험 등을 잘 준비해야 합니다. 또한 서류 평가에서도 학업역량과 전공적합성에 대한 긍정적인 평가를 받을 수 있도록 제출서류를 체크하고 준비하는 것이 중요합니다.
+자세한 정보는 입학사정관에게 문의하거나, https://ipsi. deu. ac. kr/main. do 웹사이트에서 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 성적 4.16에 대한 합격 가능성을 낮게 평가하고 있으나, 원본 텍스트에서는 4.16이 평균 등급보다 높은 성적이라고 언급하고 있어 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 특히 수능 성적 평균에 대한 정보가 다르게 제시되고 있습니다. 원본에서는 4.78이 평균이라고 했으나, 생성된 응답에서는 4.5 이상이라고 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용을 왜곡하여 제시하고 있습니다. 그럼에도 불구하고, 지원자의 상황에 대한 조언을 포함하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 이유를 나열하고 있으나, 논리적인 흐름이 다소 부족하여 일관성이 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있으며, 특히 수능 성적 평균에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 사실성과 일관성이 부족하여 다차원적인 품질이 낮습니다. 관련성은 높지만, 정확성과 일관성이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있으나, 원본 텍스트의 의미를 왜곡하고 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6807489903008159</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 점수를 가지고 동의대학교 게임공학과에 지원하는 경우, 추가 합격 가능성은 낮을 것으로 보입니다. 이유는 다음과 같습니다:
+1. **게임공학과 모집단위**: 이 과정에서 제공된 정보로는 게임공학과에 대한 특별한 전형 요건이나 가산점이 명시되어 있지 않습니다.
+2. **수능 성적 평균**: 동의대학교 게임공학과의 수능 성적 평균은 보통 4.5 이상입니다 (예: 2023년도 모집단위에서 국어+수학+탐구(2개) 표준 변환 점수 합 평균이 419.86점, 수능 4개 영역 표준 변환 점수 합 평균이 450.37점입니다).
+3. **경쟁률**: 게임공학과의 경쟁률은 높습니다 (예: 2023년도 모집단위에서 지원 인원 대비 충원 합격자 수는 매우 낮았습니다).
+4. **영어 등급 평균**: 영어 등급 평균이 3.88입니다. 게임공학과에서는 영어 실력도 중요한 요소로 작용할 수 있습니다.
+따라서, 4.16이라는 점수는 현재의 정보를 바탕으로 보면 추가 합격 가능성은 낮습니다. 하지만 최종 결정을 내리기 전에 다음과 같은 조치들을 취해보시는 것이 좋습니다:
+- **추가 과목 공부**: 수학, 영어 등 주요 과목에서 더 많은 준비를 하세요.
+- **면접 준비**: 게임공학과의 면접 평가 기준을 잘 이해하고 준비하세요.
+- **서류 작성**: 학교생활기록부와 서류를 철저히 검토하여 진위 여부를 확인하세요.
+더 자세한 정보나 도움이 필요하시다면, 동의대학교 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하거나 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 포함하고 있으며, 3.75라는 성적이 합격 가능성이 높다는 점을 언급하고 있습니다. 그러나 최초등록자와 관련된 세부 사항에 대한 명확한 정보가 부족하여 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 최초등록자와 관련된 세부 사항에 대한 언급이 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 주제를 완전히 따르지 않기 때문에 점수가 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 경영정보학과의 정시 성적에 대한 질문에 적절하게 답변하고 있습니다. 따라서 매우 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 일부 정보가 추가되어 있어 원본 텍스트와의 연결이 약간 약해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 성적 기준에 대한 정확한 정보를 제공하고 있지만, 최초등록자와 관련된 세부 사항에 대한 명확한 정보가 부족하여 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부 사항에서 부족함이 있어 완벽한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본의 의미를 약간 벗어날 수 있어 점수가 다소 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 복잡한 표현이 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6181149351367993</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집군 변경 사항을 보면, 경영정보학과는 '가'군으로 분류되어 있습니다. 하지만 특정 단과대학이나 모집단위별 최저 성적 기준이 있는지 명확히 확인해야 합니다.
+현재 제공된 정보로는 경영정보학과의 정시 성적 3.75가 충분한 점수일 것으로 보입니다만, 최종적으로 가능 여부를 판단하기 위해서는 동의대학교의 공식 입학전형 안내 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나, 학교 관계자에게 직접 문의하는 것이 가장 정확할 것입니다.
+특히, 최초등록자로 등록 가능한지와 같은 세부 사항은 각 단과대학별로 다를 수 있으므로, 공식 웹사이트나 학교 측에 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 정시 합격 가능성에 대한 판단을 어렵다고 언급하고 있지만, 원본 텍스트에서는 4.2의 성적이 평균 등급보다 낮아 합격 가능성이 낮다고 명확히 언급하고 있습니다. 따라서, 사실관계에서 차이가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반영하지 않고, 나군 학생부종합전형에 대한 정보로 대체하고 있습니다. 이는 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 합격 가능성에 대한 질문에 대해 나군 학생부종합전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 주제와는 다소 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 주제 간의 흐름이 매끄럽지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 4.2의 성적이 낮다고 명시된 부분을 간과하고 있습니다. 따라서 정확성에서 낮은 점수를 받습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 사실관계와 일관성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 다르게 해석되고 있으며, 주제와의 관련성이 떨어집니다. 그러나 전반적으로 의미가 완전히 벗어나지는 않았습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으며, 명확한 표현이 많습니다. 그러나 일부 내용은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.5626925365043878</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 합격 가능성 판단이 어렵습니다. 경영정보학과의 정시 합격을 위해서는 나군 학생부종합전형의 지원 자격 및 서류 평가 기준 등을 충족해야 합니다.
+나군 학생부종합전형의 경우, 학업역량과 전공적합성 등이 중요하게 평가되며, 이에 대한 세부 평가 기준을 보면 다음과 같은 점들이 주요 평가 항목입니다:
+1. **학업역량**:
+   - 문제해결능력
+   - 학업 역량과 전공적합성 관련 공통문항 발표 및 질의응답
+2. **전공적합성**:
+   - 진로정보 탐색능력
+   - 지원 전공(계열)에 대한 관심과 이해
+   - 진로 탐색 활동을 통한 성장과정과 결과
+따라서, 경영정보학과의 정시 성적이 4.2이라면, 이 성적만으로는 학업역량 평가에서 좋은 점수를 받을 수 있을 것입니다. 그러나 전공적합성 평가에서는 진로 탐색 활동을 통한 성장과정과 결과 등을 잘 보여줘야 합니다.
+**추천 사항:**
+1. **진로 탐색 활동**: 지원하는 경영정보학과에 대한 관심과 이해를 보여주기 위해, 관련 활동이나 경험을 서류평가에서 잘 기재해야 합니다.
+2. **면접 준비**: 면접에서는 지원 동기에 대해 구체적으로 설명하고, 학업계획과 전공적합성에 대한 생각을 명확히 표현해야 합니다.
+**결론:**
+4.2의 성적이 좋은 점수이지만, 전공적합성 평가에서 잘 보여줘야 하므로, 진로 탐색 활동을 통한 성장과정과 결과를 잘 기재하고 면접에서도 잘 준비하는 것이 중요합니다.
+더 자세한 정보나 추가 질문이 있으시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 평균 영어 등급과 수능 4개 영역의 평균 점수를 제공하고 있지만, 원본 텍스트의 정보와는 다소 차이가 있습니다. 원본 텍스트에서는 영어 등급 평균이 3.25로 언급되었으나, 생성된 응답에서는 3.88로 제시되었습니다. 이로 인해 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 영어 등급 평균에 대한 불일치로 인해 일관성이 떨어집니다. 또한, 응답에서 제시된 정보가 원본 텍스트의 주제와 완전히 일치하지 않기 때문에 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 세부 사항이 원본 텍스트와 다르기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있어 점수가 완벽하지는 않습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 영어 등급 평균에 대한 잘못된 정보로 인해 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 세부 사항에서 차이가 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.5882654551252156</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과 일반학생전형에 대한 최초합격자 정보를 참고하겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 303.44, 표준 편차 10.34
+- **영어 등급**: 평균 3.88, 표준 편차 0.31
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 419.33, 표준 편차 9.73
+이 정보를 바탕으로, 국어 + 수학 + 탐구(2개)의 표준 변환 점수 합은 5.33보다 높습니다 (평균 303.44). 그러나 영어 등급 평균 3.88과 비교하면 약간 낮습니다.
+따라서, 정확한 합격 가능성 판단을 위해서는:
+1. **개인 성적의 표준 변환 점수를 확인**: 국어 + 수학 + 탐구(2개)의 표준 변환 점수 합이 303.44 이상인지 확인해야 합니다.
+2. **영어 등급 평균과 비교**: 영어 등급은 평균 3.88보다 약간 낮지만, 동의대학교의 경우 특정 기준을 충족하면 합격 가능성이 있습니다.
+따라서, 개인 성적이 5.33이고, 국어 + 수학 + 탐구(2개)의 표준 변환 점수 합이 평균 이상이라면, 일반적으로는 합격 가능성은 높습니다. 하지만 최종 결정을 내리기 위해서는 동의대학교의 정확한 기준과 개인 성적을 상세히 분석해야 합니다.
+더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 등급에 대한 정보를 제공하지 않고, 3.33의 성적이 최초등록자로 가능할지에 대한 확실한 판단을 내리지 못하고 있습니다. 이는 원본 텍스트의 정보와 일치하지 않으며, 일부 사실을 누락하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 등급에 대한 구체적인 언급이 없고, 판단을 내리지 못하는 부분에서 일관성이 떨어집니다. 원본 텍스트는 합격 가능성이 높다고 명시하고 있으나, 생성된 응답은 불확실성을 강조하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 관련 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다. 특히, 평균 등급에 대한 정보가 부족하여 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 내용을 충분히 반영하지 못해 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있으나, 평균 등급에 대한 구체적인 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 맞는 정보를 제공합니다. 그러나 원본 텍스트의 핵심 내용을 충분히 반영하지 못해 다소 아쉬운 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7692139461371063</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학과의 최저 등급을 확인하기 위해서는 이전 년도의 입학성적 분석 자료를 참조해야 합니다. 하지만 현재 제공된 정보만으로는 정확한 판단이 어렵습니다.
+현재 주어진 정보로는 2024학년도 바이오응용공학과의 최저 등급을 알 수 없습니다. 따라서, 3.33 정도의 영어 성적으로 최초등록자로 가능할지는 확실하지 않습니다. 
+추가적으로 확인해야 할 사항들은 다음과 같습니다:
+1. 2024학년도 바이오응용공학과의 정시 모집군 및 최저 등급.
+2. 개인의 국어, 수학, 탐구 등의 성적을 포함한 총합 점수.
+추천되는 방법은 다음과 같습니다:
+1. 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하여 2024학년도 바이오응용공학과의 정시 모집군 및 최저 등급을 확인합니다.
+2. 자신의 성적을 포함한 총합 점수를 계산하고, 이에 대한 분석을 합니다.
+만약 자세한 정보가 필요하다면 동의대학교 입학처로 문의하시거나, 학교에서 제공하는 온라인 커뮤니티나 포럼 등을 통해 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있는 가능성을 언급하고 있지만, 원본 텍스트에서 제시된 평균 등급과 비교했을 때 4.4의 성적이 낮다는 점을 간과하고 있습니다. 또한, 수학과 물리의 성적에 대한 구체적인 언급이 없으며, 원본 텍스트의 정보와 다소 상충하는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 과학 과목의 중요성을 강조하고 있지만, 원본 텍스트에서 제시된 평균 등급과의 관계를 명확히 하지 않아 일관성이 떨어집니다. 특히, 4.4의 성적이 낮다는 점을 명확히 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 지원하는 것과 관련된 여러 요소를 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 여러 가지 요소를 체계적으로 나열하고 있어 논리적인 흐름이 있습니다. 그러나 원본 텍스트와의 연결이 명확하지 않아 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보와 조언을 제공하지만, 원본 텍스트의 평균 등급과 비교했을 때 정확성이 떨어집니다. 4.4의 성적이 낮다는 점을 명확히 반영하지 않았습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 측면에서 유용한 정보를 제공하지만, 원본 텍스트와의 일관성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 조언과 정보를 제공하며, 의미적으로 적절합니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 못한 점이 아쉽습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언을 제공합니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6425832601398469</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>4등급의 성적을 가지고 방사선학과에 지원하는 것은 가능하지만 경쟁률이 높아서 합격하기는 어려울 수 있습니다. 방사선학과는 수능에서 과학 영역이 중요하므로, 수학, 물리 등 과학 관련 과목의 성적을 잘 낸다면 더 유리할 것입니다.
+현재 제시된 정보만으로는 정확한 답변을 드릴 수 없지만, 다음과 같은 점들을 고려해보세요:
+1. **수능 성적**: 방사선학과에 지원하려면 과학 영역의 성적이 중요합니다. 현재 국어 4등급, 수학 미적분 또는 기하 108점, 물리 등급이 필요할 것입니다.
+2. **경쟁률**: 방사선학과는 경쟁률이 높은 학과 중 하나입니다. 따라서 좋은 성적을 낸 후에도 다른 전형이나 대학을 함께 준비하는 것이 좋습니다.
+3. **추천 과목**: 수능에서 물리와 생명과학 등 과학 관련 과목의 성적이 높아지도록 노력해보세요.
+4. **학생부**: 학생부에서도 좋은 평가를 받는 것이 중요합니다. 진로와 관련된 활동이나 성적을 잘 보여주는 내용이 포함되어 있으면 좋습니다.
+5. **면접 준비**: 일부 전형에서는 면접을 실시하므로, 방사선학과에 대한 이해도와 관심도를 잘 표현할 수 있도록 미리 준비해보세요.
+추가로 필요한 정보나 자세한 조언이 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 링크에서 더 자세한 내용을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 관련된 정보가 잘못 해석되었습니다. 2.66이라는 점수가 평균보다 낮다고 언급했지만, 원문에서는 이 점수가 평균보다 높다고 명시하고 있습니다. 또한, 경쟁률 평균과 표준 편차에 대한 정보는 원문에 포함되어 있지 않아 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 2.66이 평균보다 높다고 했으나, 생성된 응답에서는 이를 낮다고 주장하고 있습니다. 이러한 모순으로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 지원 전략에 대한 조언을 포함하고 있지만, 원문에서 제공하는 정보와 직접적으로 관련이 적습니다. 원문은 성적에 대한 정보에 집중하고 있으나, 생성된 응답은 지원 방법에 대한 정보로 주제를 확장했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 조언이 명확하게 제시되어 있습니다. 그러나 원문과의 연결이 약해져서 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히, 2.66이라는 점수에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원문과의 관계가 약해 다차원적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 원문의 의미와는 다소 다른 방향으로 나아가고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언을 제공합니다. 그러나 원문과의 연결이 약해 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.4740822533620549</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66이라는 점수는 방사선학과의 경쟁률 평균인 7.20에 비해 상대적으로 낮습니다. 이 점수로 지원하면 충분히 경쟁력을 갖추지 못할 가능성이 있습니다. 하지만 표준 편차가 9.80이라는 것을 고려하면, 이는 점수의 분산이 크다는 의미입니다. 따라서 특정 학생의 실력과 특성에 따라 다르게 평가될 수 있습니다.
+만약 지원을 고려하고 있다면, 다음과 같은 조치를 취해보시는 것이 좋습니다:
+1. **자기소개서와 면접 준비**: 지원동기에 대한 명확한 설명과 학업계획을 포함한 자기소개서를 작성하세요. 면접에서도 이러한 내용을 강조하여 자신의 적합성을 어필하세요.
+2. **추천서 및 추천인**: 가능한 경우 교사나 전문가의 추천서를 받으세요. 이는 지원자의 학업역량과 전공적합성에 대한 추가적인 증거로 활용될 수 있습니다.
+3. **면접 연습**: 면접을 준비하는 데 도움이 되는 질문들을 미리 생각해보세요. 예를 들어, 지원동기와 학업계획, 전공적합성 등에 대해 질문받을 가능성이 높습니다.
+4. **추가 자격증 및 활동**: 관련 자격증이나 활동 경력을 추가로 준비하여 지원자의 전공적합성을 강화하세요.
+이러한 조치들을 취하면 2.66이라는 점수로도 충분히 경쟁력을 갖출 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학과의 평균 수능 등급과 경쟁률에 대한 정보를 포함하고 있지만, 영어 등급 평균과 표준 편차에 대한 정보는 원본 텍스트에 명시되어 있지 않으며, 이는 사실과 다를 수 있습니다. 또한, "3.66의 영어 등급 점수"라는 표현은 원본 텍스트의 맥락과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보와 일치하지만, 영어 등급에 대한 추가적인 정보는 원본 텍스트와 일치하지 않으며, 이로 인해 일관성이 떨어집니다. 특히, 영어 등급 평균과 표준 편차에 대한 언급은 원본 텍스트에 포함되어 있지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원본 텍스트의 주요 포인트와는 약간의 차이가 있습니다. 그러나 전반적으로 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 불일치로 인해 정확성이 떨어집니다. 특히, 영어 등급 평균과 표준 편차에 대한 정보는 확인할 수 없는 내용입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 일부 정보는 유용하지만, 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 일부 반영하고 있지만, 추가된 정보가 원본 텍스트와 일치하지 않아 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5144979859207296</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 영어 등급 점수로 경찰행정학전공 농어촌 전형에 지원하는 경우, 합격 가능성은 다음과 같이 판단될 수 있습니다.
+1. **영어 등급 평균과 표준 편차**: 
+   - 평균: 3.88
+   - 표준 편차: 0.31
+2. **성적 산출방법**:
+   - 농어촌 전형은 학생부 종합전형으로, 영어 등급 점수는 평균보다 약간 낮습니다.
+3. **경쟁률과 지원 인원**:
+   - 경찰행정학전공의 경우, 모집인원이 제한적이고 경쟁률이 높을 수 있습니다.
+   - 지원 인원이 많다면 합격 가능성은 낮아질 수 있습니다.
+4. **학생부 종합평가**:
+   - 영어 등급 점수가 평균보다 약간 낮지만, 다른 성적과 학생부 내용에 따라 합격 가능성이 있을 수 있습니다.
+   - 학생부의 공동체역량, 학업역량, 전공적합성 등의 평가 결과도 중요합니다.
+5. **면접평가**:
+   - 면접에서는 지원동기와 학업계획, 전공적합성 등을 평가받습니다.
+   - 잘 준비하고 답변하면 합격 가능성은 높아질 수 있습니다.
+결론적으로 3.66의 영어 등급 점수로는 경쟁률이 높고 모집인원이 제한적인 경찰행정학전공 농어촌 전형에 지원하는 경우, 합격 가능성은 낮을 수 있지만, 다른 성적과 학생부 내용, 면접 준비 등을 잘하면 합격 가능성이 있을 수 있습니다. 자세한 정보는 대학 입학처와 상담하여 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 일반적인 정보를 제공하고 있으며, 경쟁률, 모집인원, 지원 인원 등을 고려해야 한다고 언급하고 있습니다. 그러나 원문에서 제시된 특정 학과 목록을 언급하지 않아 일부 정보가 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 예비 25번의 합격 가능성에 대한 내용을 다루고 있지만, 원문에서 제공된 특정 학과 목록을 포함하지 않아 일관성이 떨어집니다. 원문과의 연결이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 원문에서 다룬 주제와 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성에 대한 일반적인 정보를 정확하게 전달하고 있지만, 원문에서 제공된 특정 학과 목록을 누락하여 일부 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 강점을 보입니다. 그러나 원문과의 일관성 부족으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 다룬 주제와 관련된 의미를 잘 전달하고 있으며, 적절한 맥락에서 정보를 제공합니다. 다만, 특정 학과 목록의 누락으로 인해 완전한 적절성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5811615270430298</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비합격자 중에서 실제로 합격하는 경우는 있습니다. 경쟁률과 모집인원, 지원 인원 등을 고려할 때 25번은 상대적으로 낮은 순위이므로 합격 가능성은 높습니다. 하지만 정확한 확률을 예측하기 위해서는 해당 전형의 경쟁률과 모집인원, 지원 인원 등을 확인해야 합니다.
+예를 들어, 특정 단과대학에서 25번의 예비합격자가 나왔다면:
+1. **모집인원**: 얼마나 많은 학생들이 선발될지.
+2. **지원 인원**: 얼마나 많은 학생들이 지원했는지.
+3. **경쟁률**: 이전에 발표된 경쟁률을 확인하여 25번의 예비합격자가 실제 합격할 확률을 추정할 수 있습니다.
+예를 들어, 모집인원이 10명이고 지원 인원이 40명이라면, 25번은 상대적으로 낮은 순위이므로 합격 가능성은 높습니다. 하지만 만약 모집인원이 30명이고 지원 인원이 60명이라면 경쟁률이 더 높아지고 합격 확률은 낮아질 수 있습니다.
+따라서, 정확한 합격 가능성을 파악하려면 해당 단과대학의 모집인원과 지원 인원을 확인해야 합니다. 이를 통해 실제 경쟁률을 계산하고 합격 가능성을 추정할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에 법경찰행정학부가 존재한다고 언급하고 있으며, 이는 원본 텍스트와 상충합니다. 원본 텍스트에서는 법경찰행정학부가 존재하지 않는다고 명확히 언급하고 있습니다. 또한, 평균 성적에 대한 정보도 잘못된 수치로 제시되고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 여러 면에서 일치하지 않으며, 법경찰행정학부의 존재 여부와 평균 성적에 대한 정보가 서로 모순됩니다. 따라서 일관성이 매우 낮습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 입학 정보에 대한 질문에 대한 답변을 시도하고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 관련성이 떨어집니다. 원본 텍스트의 핵심 정보와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 주제와의 관련성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 법경찰행정학부의 존재 여부와 평균 성적에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 저하된 응답입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7271024257972667</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정원 내 모집 인원은 40명이며, 나군에서 농어촌 학생 전형으로 지원할 경우 추가 내용을 참조해야 합니다. 
+현재 제공된 정보로는 정확한 평균 성적을 예측하기 어렵습니다. 하지만 일반적으로 법경찰행정학부의 경쟁률은 높아서 안정권에 들기 위해서는 90점 이상, 문 닫고 들어갈 수 있는 수준에서는 95점 이상 받는 것이 좋습니다.
+이 정보를 참고하시되, 최종적인 평균 성적과 합격 가능성을 확인하려면 동의대학교 입학처 웹사이트나 https://ipsi. deu.ac.kr/main.do에 접속하여 공식 모집요강을 확인하시는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 성적 평균에 대한 구체적인 수치를 제공하고 있지만, 원본 텍스트에서 언급된 아동학과의 평균 성적과는 다소 차이가 있습니다. 따라서 일부 사실이 정확하지 않거나 누락된 정보가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 보육가정상담학과와 아동학과의 성적 평균을 혼동하고 있어 일관성이 떨어집니다. 두 학과의 성적 기준이 혼합되어 제시되고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있으며, 보육가정상담학과의 합격 가능성에 대한 정보를 제공합니다. 그러나 아동학과에 대한 언급이 필요하지 않은 부분이 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 아동학과와 보육가정상담학과의 정보가 혼합되어 있어 약간의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 아동학과와 보육가정상담학과의 성적 평균에 대한 정보가 혼동되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 아동학과에 대한 언급이 필요하지 않은 부분이 있어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6070183470167231</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과의 정시 학생부종합전형을 분석해보겠습니다.
+1. **성적 산출 방법**: 보육가정상담학과는 일반적으로 학생부 종합전형으로 운영되며, 성적이 중요한 요소 중 하나입니다. 하지만 정확한 합격 기준 점수를 알기 위해서는 해당 모집단위의 평균 성적을 확인해야 합니다.
+2. **성적 평균**: 보육가정상담학과의 2024년도 모집에서 국어, 수학, 영어 등급 및 수능 4개 영역의 평균 점수를 확인해보면 다음과 같습니다:
+   - 국어: 4.65
+   - 수학: 4.19
+   - 영어: 3.88
+   - 수능 4개 영역: 4.65
+3. **성적 비교**: 제공된 정시 산출 등급이 5.33입니다. 이는 평균보다 약간 높은 점수를 나타냅니다.
+4. **합격 가능성**: 보육가정상담학과의 합격 기준을 고려하면, 제공된 성적이 평균보다 약간 높으므로 합격 가능성은 있습니다. 하지만 정확한 합격 가능성을 판단하기 위해서는 해당 모집단위의 최종 합격자들의 성적 분포와 경쟁률 등을 더 자세히 확인해야 합니다.
+따라서, 제공된 성적이 평균보다 약간 높으므로 합격 가능성은 있지만, 확실한 결정을 내리기 위해서는 해당 모집단위의 최종 합격자들의 성적 분포와 경쟁률 등을 더 자세히 확인해야 합니다. 필요하다면, 동의대학교 입학처에 직접 문의하시거나, 제공된 정보를 바탕으로 추가적인 분석을 진행해보시기 바랍니다.
+더 궁금하신 점이 있으시다면, https://ipsi. deu. ac. kr/main. do 에서 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 12번의 합격 가능성이 낮다고 언급하고 있지만, 원본 텍스트에서는 예비 번호가 12번일 경우 합격 가능성이 아예 없는 것은 아니라고 명시하고 있습니다. 따라서, 생성된 응답은 원본의 내용을 일부 왜곡하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 예비 12번의 합격 가능성을 "매우 낮다"고 단정짓는 부분에서 일관성이 부족합니다. 원본 텍스트는 가능성이 아예 없다고 하지 않기 때문에, 이 부분에서 불일치가 발생합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 예비 12번에 대한 합격 가능성과 관련된 조치를 제안하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 조치가 합격 가능성을 높이기 위한 방법으로 제시되어 있습니다. 그러나 일부 문장 간의 연결이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 12번의 합격 가능성을 낮게 평가하고 있지만, 원본 텍스트의 내용을 완전히 반영하지 못하고 있습니다. 예비 번호에 대한 정확한 정보가 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 약간의 문제가 있습니다. 그럼에도 불구하고 관련성과 유창성은 높습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 예비 12번에 대한 해석에서 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.6835609874378332</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담 충원 합격 3차에서 예비 12번을 받았다면, 합격 가능성은 매우 낮습니다. 일반적으로 합격자는 1~3번 사이에 선발되며, 예비 순위가 높아질수록 합격 확률이 줄어듭니다.
+만약에 합격 가능성을 높이기 위해서는 다음과 같은 조치를 취할 수 있습니다:
+1. **추가 서류 제출**: 필요하다면 추가 서류를 제출하거나, 기존 서류를 보완할 수 있습니다.
+2. **개인 면접 준비**: 면접 요소가 반영되는 경우, 개인 면접을 잘 준비해야 합니다.
+3. **동기부여 및 자기소개서 수정**: 합격 이유를 강조하고, 자신의 장점을 더 명확히 표현할 수 있습니다.
+하지만, 현재 상황에서는 합격 가능성은 낮으므로, 다른 대학이나 전형을 고려해보는 것이 좋습니다. 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75의 성적이 유아교육학과에 지원하기 어렵다는 점을 언급하고 있으나, 유아교육학과의 평균 등급에 대한 정보가 누락되어 있습니다. 또한, 다른 학과의 평균 등급을 제시하면서 유아교육학과와의 비교를 명확히 하지 않아 다소 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 정보가 부족하고, 다른 학과의 평균 등급을 나열하는 방식이 원본 텍스트와 일관성이 떨어집니다. 원본 텍스트는 유아교육학과에 대한 명확한 결론을 제시하고 있으나, 생성된 응답은 그에 대한 명확한 연결이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 4.75의 성적에 대한 정보를 제공하고 있으며, 유아교육학과에 대한 지원 가능성을 논의하고 있습니다. 그러나 다른 학과의 평균 등급을 나열하는 부분이 원본 텍스트의 핵심 주제와는 다소 관련성이 떨어질 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 학과의 평균 등급을 나열하는 방식으로 구성되어 있으나, 유아교육학과와의 연결이 명확하지 않아 논리적 흐름이 다소 약합니다. 정보가 분산되어 있어 일관된 주제를 유지하기 어렵습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성을 언급하고 있으나, 평균 등급에 대한 정보가 부족하여 정확성이 떨어집니다. 또한, 다른 학과의 평균 등급을 제시하는 부분이 원본 텍스트와의 일치 여부가 불확실합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으나, 정보의 일관성과 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있으며, 의미적으로 적절한 표현을 사용하고 있습니다. 그러나 유아교육학과에 대한 정보가 부족하여 완전한 적절성을 보장하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 정보가 분산되어 있어 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.8055820836293958</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 등급은 상당히 높은 점수입니다. 현재 제공된 데이터를 바탕으로, 각 단과대학 및 모집단위별로 지원자의 경쟁률과 평균 등급을 비교해보겠습니다.
+1. **인문사회과학대학 - 행정학과**
+   - 평균 등급: 4.28
+   - 표준 편차: 0.25
+2. **인문사회과학대학 - 사회복지학과**
+   - 평균 등급: 4.51
+   - 표준 편차: 0.22
+3. **상경대학 - 금융경영학과**
+   - 평균 등급: 5.05
+   - 표준 편차: 0.36
+4. **상경대학 - 재무부동산학과**
+   - 평균 등급: 5.30
+   - 표준 편차: 0.80
+5. **상경대학 - 무역학과**
+   - 평균 등급: 4.96
+   - 표준 편차: 0.34
+6. **상경대학 - 유통물류학과**
+   - 평균 등급: 5.18
+   - 표준 편차: 0.21
+7. **상경대학 - 경영학과**
+   - 평균 등급: 4.40
+   - 표준 편차: 0.18
+8. **상경대학 - 회계학과**
+   - 평균 등급: 4.85
+   - 표준 편차: 0.34
+9. **상경대학 - 경영정보학과**
+   - 평균 등급: 3.88
+   - 표준 편차: 0.14
+10. **상경대학 - e비즈니스학과**
+    - 평균 등급: 4.17
+    - 표준 편차: 0.19
+11. **상경대학 - 국제관광경영학과**
+    - 평균 등급: 4.85
+    - 표준 편차: 0.37
+12. **상경대학 - 호텔·컨벤션경영학과**
+    - 평균 등급: 5.04
+    - 표준 편차: 0.25
+13. **상경대학 - 외식경영학과**
+    - 평균 등급: 4.72
+    - 표준 편차: 0.24
+14. **의료보건생활대학 - 간호학과**
+    - 평균 등급: 3.12
+    - 표준 편차: 0.21
+15. **의료보건생활대학 - 임상병리학과**
+    - 평균 등급: 3.97
+    - 표준 편차: 0.20
+16. **의료보건생활대학 - 치위생학과**
+    - 평균 등급: (데이터 미제공)
+이 중에서 유아교육학과는 데이터가 제공되지 않았습니다. 그러나 유사한 분야인 간호학과와 임상병리학과의 경우, 평균 등급이 3.12와 3.97으로 비교적 낮은 편입니다.
+따라서 4.75라는 수능 등급으로는 유아교육학과에 지원하는 것은 어렵다고 판단할 수 있습니다. 다른 분야의 학과를 고려해보시거나, 유아교육학과의 평균 등급을 확인하시고 그에 맞춰 준비하시는 것이 좋겠습니다.
+더 궁금한 점이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조하여 자세히 알아보세요.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 경쟁률과 수능 최저기준에 대한 정보를 제공하고 있으며, 환산등급 4.16이 경쟁력 있다는 점을 강조하고 있습니다. 그러나 원본 텍스트에서 제공된 아동학과의 평균 등급 정보(영어 등급 평균 6.33, 수능 4개 영역 등급 평균 7.08)에 대한 언급이 없으므로, 일부 정보가 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 경쟁률과 수능 최저기준에 대한 추가 정보를 제공함으로써 원본 텍스트와의 일관성이 떨어질 수 있습니다. 특히, 수능 최저기준이 없다는 점은 원본 텍스트에서 명시된 합격 가능성과는 다소 다른 맥락을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 지원자의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 환산등급과 관련된 정보를 정확하게 제공하고 있으며, 경쟁률과 수능 최저기준에 대한 정보도 정확합니다. 그러나 원본 텍스트의 평균 등급 정보가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 원본 텍스트와의 일관성 및 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 추가되어 원본의 의도와 다소 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.6248389478165322</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과(아동학과) 일반학생전형의 경쟁률과 수능 최저기준을 확인해보겠습니다.
+1. **경쟁률**: 지원 인원 16명, 모집 인원 7명으로 경쟁률은 약 2.29입니다.
+2. **수능 최저기준**: 수능최저기준 없음
+현재의 환산등급이 4.16이고, 이는 수능 등급 3.85 이상에 해당합니다 (평균 3.12, 표준 편차 0.21을 기반으로 계산).
+보육가정상담학과(아동학과)의 수능 최저기준이 없으므로, 현재의 환산등급 4.16은 충분히 경쟁력을 갖추고 있습니다.
+따라서, 지원하신 환산등급 4.16은 경쟁률 2.29에 비해 충분한 점수를 보유하고 있으므로, 추합까지 생각해도 합격 가능성은 높습니다.
+만약 추가로 면접이나 서류 등 다른 요소가 반영되는 경우에도 현재의 환산등급이 경쟁력을 갖추고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 무시하고, 소프트웨어공학부에 대한 모집 정보가 있다고 언급하고 있습니다. 이는 원본 텍스트와 상충하는 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 정시 지원이 불가능하다는 내용을 부정하는 정보가 포함되어 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어공학부에 대한 정보를 제공하지만, 질문의 핵심인 소프트웨어융합학과의 정시 지원 가능성에 대한 답변이 부족합니다. 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 주제 간의 연결이 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 상반되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 지원에 대한 질문에 적절하지 않은 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기 어렵지 않지만, 질문에 대한 적절한 답변이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.3915199160507019</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부는 모집이 이루어지지만, 현재 제공된 정보에서는 해당 학과의 정시모집 관련 자세한 내용이 명시되어 있지 않습니다. 
+따라서 정확한 답변을 드리기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 2024학년도 소프트웨어공학부의 정시모집 관련 정보를 확인해 보시기 바랍니다.
+만약 해당 페이지에서도 명확한 답변을 얻지 못하시면, 대구교육대학교 입학처에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 면접에서 학업역량과 전공적합성에 대한 질문이 주를 이룬다고 언급하고 있지만, 원문에서는 서류 평가와 면접 고사를 합쳐서 평가한다고 명시되어 있습니다. 또한, 서류 준비에 대한 구체적인 내용이 원문에 포함되어 있지 않으므로, 일부 정보가 누락되거나 다르게 해석되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 면접에서 세특 내용을 많이 보지 않는다고 언급한 부분은 원문과의 일관성이 부족합니다. 원문에서는 세특에 대한 언급이 없으므로, 이 부분에서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 면접 준비와 관련된 정보를 제공하고 있지만, 원문에서 요구하는 서류와 관련된 정보가 부족합니다. 따라서, 전반적으로 관련성이 높지만 일부 정보가 누락되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원문과의 연결성이 약간 떨어지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원문에서 명시된 평가 방식에 대한 정확한 설명이 부족합니다. 특히, 서류 평가와 면접 고사에 대한 구체적인 내용이 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 사실성과 일관성에서 약간의 부족함이 있어 완벽한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있지만, 일부 내용이 원문과 다르게 해석될 수 있는 여지가 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.4440218208104578</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>학생부종합전형의 경우, 면접에서는 지원자들의 학업역량과 전공적합성에 대한 질문이 주를 이룹니다. 특히, 면접에서 세특 내용을 많이 보는 것은 아니며, 서류평가와 동일하게 지원자의 학업태도나 활동내용 등을 평가합니다.
+따라서, 면접 준비 시에는 다음과 같은 점들을 고려해보시면 좋습니다:
+1. **지원동기 및 학업계획**: 지원동기에 대해 명확히 설명하고, 입학 후 어떤 학업 계획을 세울 것인지 구체적으로 이야기하세요.
+2. **학업역량**: 고교 생활 중 학업에 대한 어려움과 이를 극복하기 위한 노력 등을 이야기해보세요.
+3. **전공적합성**: 지원 전공(계열)에 대한 관심과 이해를 표현하고, 관련 활동이나 경험을 설명하세요.
+**서류 준비**는 다음과 같이 이루어집니다:
+1. **고교 학교생활기록부**: 이는 기본적으로 제출해야 하는 서류입니다.
+2. **면접질문지**: 면접 질문 공통문항을 미리 읽어보세요. 이를 바탕으로 답변 준비를 하시면 좋습니다.
+이러한 내용들을 체계적으로 준비하면, 면접에서도 좋은 평가를 받을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 최초합격자 성적에 대한 정보를 제공하고 있으며, 4.08의 성적이 평균 등급보다 약간 높은 수준이라는 점을 언급하고 있습니다. 그러나, 최초합격자의 성적을 직접 비교하기 어렵다는 점에서 약간의 모호함이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 최초합격자의 성적을 비교하기 어렵다는 점에서 일관성이 떨어집니다. 원본 텍스트는 4.08의 성적이 평균 등급에 근접하다고 명시하고 있으나, 생성된 응답은 이를 부정하는 듯한 뉘앙스를 가지고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 동의대학교 소프트웨어공학부의 최초합격자 성적에 대한 정보를 제공하고 있습니다. 질문에 대한 적절한 답변을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나, 일부 문장에서 정보의 흐름이 약간 어색할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 4.08의 성적이 평균보다 높은 점수를 언급하고 있습니다. 그러나, 최초합격자 성적을 비교하기 어렵다는 점에서 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 좋은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.8034770845299037</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 소프트웨어공학부의 정시 최초합격자의 수능 점수와 비교하기 어렵습니다. 동의대학교 소프트웨어공학부의 경우 특정 단과대학이나 모집단위별로 지원 인원, 경쟁률 등이 다르므로 정확한 정보를 얻기 위해서는 해당 학부의 2024년도 최초합격자 성적을 확인해야 합니다.
+특정 단과대학이나 모집단위의 최초합격자 성적을 확인하려면 다음과 같은 과정을 거치실 수 있습니다:
+1. 동의대학교의 공식 웹사이트를 방문합니다.
+2. '입학정보' 또는 '수능(일반학생전형) 최초합격자' 섹션으로 이동합니다.
+3. 2024년도 모집단위별로 지원 인원, 경쟁률, 충원 합격자 등에 대한 정보를 확인합니다.
+또한, 정시 성적이 4.08이면 동의대학교 소프트웨어공학부에서 요구하는 수능 점수보다 높은 것은 확실하지만, 최종합격 가능성은 단과대학 및 모집단위별 경쟁률에 따라 달라질 수 있습니다.
+따라서, 가장 정확한 정보를 얻기 위해서는 동의대학교 공식 웹사이트나 입학처와 직접 문의하는 것이 좋습니다. 더 자세한 정보가 필요하시다면 https://ipsi. deu. ac. kr/main. do 를 방문해 보세요.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 정보를 제공하고 있으며, 영어 등급의 평균과 표준 편차에 대한 구체적인 수치를 제시하고 있습니다. 그러나 이러한 정보는 원본 텍스트에 포함되어 있지 않으며, 원본 텍스트의 내용과는 관련이 없습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 소프트웨어융합학과의 정시 모집에 대한 정보가 부족하다고 명시하고 있지만, 생성된 응답은 소프트웨어공학부에 대한 구체적인 정보를 제공하고 있습니다. 이는 서로 상충하는 정보입니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 소프트웨어융합학과의 합격 등급 정보에 대한 질문에 대한 답변을 제공하고자 하지만, 생성된 응답은 소프트웨어공학부의 영어 등급에 대한 정보로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다. 주제가 바뀌면서 흐름이 끊기는 느낌이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 소프트웨어융합학과에 대한 정보가 아닌 소프트웨어공학부에 대한 정보를 제공하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성, 정확성 모두에서 부족함이 드러납니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제가 전환되면서 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 주제가 일관되지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.5546263414586828</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부를 지원할 때, 영어 등급의 평균이 3.77이며 표준 편차가 0.67입니다. 평균을 기준으로 하면 5등급은 상당히 높은 점수로, 이는 평균보다 약간 낮습니다.
+하지만 표준 편차를 고려하면, 5등급은 평균에서 약간의 범위 내에 해당합니다. 즉, 영어 등급이 3.77일 때, 5등급은 가능성이 있지만 확률은 낮을 수 있습니다.
+따라서, 소프트웨어공학부를 지원하려면 다른 요인들(예: 수능 점수, 학생부 성적 등)도 고려해야 합니다. 정확한 가능성은 지원 자격과 경쟁률 등을 종합적으로 분석하여 판단해야 합니다.
+더 자세한 정보나 추가적인 질문이 있으시다면 https://ipsi. deu.ac.kr/main.do 에 접속하시거나 관리자에게 문의해 주세요.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 성적에 대한 정보를 제공하지만, "4.28이라는 점수는 평균치(469.72)에 비해 약간 낮습니다"라는 부분은 사실과 다릅니다. 원본 텍스트에서는 4.28이 평균보다 높다고 언급하고 있습니다. 따라서 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 평균 성적에 대한 해석이 상충합니다. 원본 텍스트는 4.28이 평균보다 높다고 명시하고 있으나, 생성된 응답에서는 낮다고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 관련 정보를 제공하고 있으며, 신소재공학과의 경쟁률과 서류 평가, 면접에 대한 중요성을 언급하고 있습니다. 그러나 원본 텍스트의 핵심 정보에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 성적에 대한 잘못된 해석이 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 다만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6325475172467193</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수는 동의대학교 신소재공학과의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균치(469.72)에 비해 약간 낮습니다. 하지만 표준 편차가 16.29이므로, 이 정도 차이는 충분히 가능합니다.
+다만, 동의대학교 신소재공학과는 경쟁률이 높은 학과 중 하나이며, 평균적인 성적보다는 개인의 특성과 서류평가에서 좋은 점수를 받는 것이 중요합니다. 특히, 면접에서는 지원동기와 전공적합성을 잘 설명하는 것이 도움이 될 수 있습니다.
+따라서, 4.28이라는 점수만으로는 확정적으로 합격할 수 있다고 말하기 어렵습니다. 서류평가와 면접에서 좋은 성과를 얻어야 합니다. 또한, 동의대학교 신소재공학과에 대한 관심과 진로 탐색 활동을 잘 설명하는 것이 중요합니다.
+더 자세한 정보나 추가 지원 방법이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정보를 제공하고 있지만, 원문에서 명시된 "자기소개서가 필요없습니다"라는 사실을 정확히 반영하지 않고 있습니다. 또한, 다른 전형에 대한 정보가 포함되어 있어 혼란을 초래할 수 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 일반학생전형에 대한 설명이 원문과 상충합니다. 특히, "나군 학생부종합" 전형에 대한 언급은 원문과의 일관성을 해칩니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 질문에 대한 답변을 포함하고 있지만, 불필요한 추가 정보가 많아 주제와의 관련성이 떨어집니다. 원문에서 요구하는 정보에 비해 과도한 설명이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다. 원문과의 연결이 약해 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충하는 내용을 포함하고 있으며, 정확한 사실을 전달하지 못하고 있습니다. 특히, 자기소개서의 필요성에 대한 정보가 잘못 전달되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 일치성이 떨어져 의미 전달이 불명확한 부분이 있습니다. 특히, 다른 전형에 대한 언급이 원문과의 맥락을 벗어나 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 정보가 과도하게 포함되어 있어 혼란을 줄 수 있습니다. 간결하게 요약되지 않아 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.4391431675497349</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>一般的的学生不需要写自传。对于一般学生入学考试（普通学生전형），主要考虑的是学力考试成绩，如国语、数学、英语和探究科目的成绩。是否需要提交个人陈述或自传取决于具体的招生类型。
+在你的情况下，如果你是通过“가군(일반학생전형)”申请的话，通常不需要写自传。但是，如果招生类型是“나군 학생부종합”，则可能需要提交个人陈述或自述书来补充你的学力成绩。
+建议你查看具体的招生简章或者咨询学校的招生办公室以获取准确的信息。如果有疑问，可以访问以下网站进行详细查询：https://ipsi. deu. ac. kr/main. do
+这样你可以获得最准确的指导信息。</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 제공하고 있으며, 경쟁률과 충원 합격 인원에 대한 예시를 통해 추가 모집 가능성을 설명하고 있습니다. 그러나 원본 텍스트에서 언급된 평균 등급과 표준 편차에 대한 구체적인 정보는 포함되어 있지 않아 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 추가 모집에 대한 가능성을 논의하고 있습니다. 그러나 원본 텍스트의 특정 세부사항(예: 평균 등급)에 대한 언급이 없기 때문에 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 정시 모집과 추가 모집에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 명확한 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 정시 모집에 대한 정보를 정확하게 반영하고 있지만, 원본 텍스트의 특정 세부사항이 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일부 사실이 누락되어 있어 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.6366313010956536</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 확정적인 답변을 드리기 어렵습니다. 동의대학교의 각 모집단위별 경쟁률과 지원 인원, 충원 합격 인원 등을 고려해야 합니다.
+예를 들어, 특정 단과대학의 특정 모집단위에서:
+- 모집인원이 10명이고 지원인원이 20명이라면 경쟁률은 2.0입니다.
+- 충원 합격 인원이 8명이라면, 경쟁률이 낮고 충원 합격 인원도 많아서 추가모집에 들어갈 확률이 높을 수 있습니다.
+반대로:
+- 모집인원이 5명이고 지원인원이 20명이라면 경쟁률은 4.0입니다.
+- 충원 합격 인원이 3명이라면, 경쟁률이 높고 충원 합격 인원도 적어 추가모집에 들어갈 확률이 낮을 수 있습니다.
+따라서, 동의대학교의 특정 단과대학 및 모집단위별 정보를 확인하시거나, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 가장 정확한 답변을 얻는 방법입니다. 
+더 자세한 정보를 원하신다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보시거나, 동의대학교 입학처에 직접 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부의 합격 기준에 대한 구체적인 정보를 제공하지 않지만, 원본 텍스트에서 언급된 평균 등급에 대한 정보는 포함되어 있지 않습니다. 따라서, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 완전히 반영하지 않으며, 합격 기준에 대한 정보가 부족합니다. 그러나 원본 텍스트의 링크를 언급하고 있어 부분적으로 일관성을 유지하고 있습니다. 따라서, 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학부의 합격 기준에 대한 질문에 대한 답변을 제공하려고 하지만, 구체적인 정보를 제공하지 않아 다소 관련성이 떨어집니다. 그러나 여전히 관련된 주제를 다루고 있으므로 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있으나 전반적으로 유창합니다. 따라서, 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 수치나 정보를 포함하지 않으며, 합격 기준에 대한 명확한 답변이 부족합니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으며, 일부 강점과 약점이 있습니다. 따라서 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 구체적인 정보가 부족하여 약간의 차이가 있습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보가 부족하여 완전한 이해를 방해할 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6273649016243251</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 신소재공학부에 대한 특정 합격 기준 점수나 등급이 포함되어 있지 않습니다. 정확한 합격 기준을 확인하려면, 동의대학교의 공식 웹사이트를 방문하여 최신 입학 규칙과 전형 정보를 참조하거나, 대학 관계자에게 직접 문의하는 것이 가장 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교의 공식 웹사이트로 이동하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 작년 신소재공학과의 평균 점수인 378.15점을 언급하지 않고, 447점보다 약간 높은 점수에 대한 가능성을 언급하고 있습니다. 이는 사실과 다르며, 정확한 정보를 제공하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 응답은 작년의 평균 점수에 대한 정보가 부족하고, 작년의 상황이 반복될 가능성에 대해 언급하고 있지만, 이는 원본 텍스트와 일치하지 않습니다. 원본 텍스트는 447점이 평균 점수보다 훨씬 높다고 명확히 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문의 주제와 관련이 있지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다. 그러나 동의대학교의 입학처 웹사이트를 방문하라는 조언은 유용합니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다. 다만, 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 응답은 작년 신소재공학과의 평균 점수에 대한 정확한 정보를 제공하지 않으며, 447점이 평균 점수보다 높다는 사실을 간과하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 특히 사실성과 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 주제와 관련된 의미를 전달하고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.6885665147033154</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 각 모집단위별 최종 평균 점수를 확인해보겠습니다. 작년 신소재공학과의 경우 표준점수가 447점보다 약간 높았다면, 작년의 상황이 반복될 가능성은 있지만 확실하지 않습니다.
+현재 제공된 데이터는 2024학년도 모집단위별 지원 인원, 경쟁률, 충원 합격자 수 등에 대한 정보이며, 작년의 최종 평균 점수를 직접적으로 보여주지 않습니다. 하지만 작년과 유사한 경쟁률이 유지된다면, 작년보다 약간 높은 점수가 필요할 가능성은 있습니다.
+만약 작년의 상황을 참고하고자 한다면, 동의대학교의 입학처 웹사이트를 방문하여 작년의 최종 평균 점수나 경쟁률 등의 정보를 확인해보시는 것이 좋습니다. 또한, 동의대학교의 입학처에 직접 문의하시거나, 모집요강을 통해 자세한 정보를 얻으실 수 있습니다.
+만약 더 구체적인 조언이 필요하다면, https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하거나, 동의대학교 입학처에 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학부의 합격 가능성에 대한 정보를 제공하고 있으며, 지원자의 성적이 평균 성적과 비교했을 때 다소 높은 편이라는 점을 언급하고 있습니다. 그러나 "확실하지 않다"는 표현은 다소 모호하게 느껴질 수 있습니다. 전반적으로 사실에 기반한 내용이지만, 일부 정보가 부족하여 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하는 부분이 있지만, "4.1~4.2 등급대의 성적만으로는 충분히 합격할 수 있는 확률이 낮을 수 있다"는 주장은 원본 텍스트의 긍정적인 합격 가능성과 상충하는 부분이 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 신소재공학부의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 따라서 매우 높은 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있어 완전한 유창성에는 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 문장에서 정보의 흐름이 약간 어색하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 잘 반영하고 있으며, 신소재공학부의 합격 가능성에 대한 평가도 적절합니다. 그러나 "확실하지 않다"는 표현이 다소 애매하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 사실성, 일관성, 관련성, 유창성, 정확성 등 여러 차원에서 긍정적인 평가를 받았습니다. 그러나 일부 개선이 필요한 부분이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있어 완전한 이해를 위해 약간의 개선이 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5581555812089471</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.1~4.2 등급대의 성적이면 신소재공학과에 붙는 것은 가능성이 있지만 확실하지 않습니다. 신소재공학과의 모집인원, 지원 인원, 경쟁률 등을 고려해야 합니다.
+신소재공학과의 경우 일반적으로 경쟁률이 높은 편입니다. 따라서 4.1~4.2 등급대의 성적만으로는 충분히 합격할 수 있는 확률이 낮을 수 있습니다. 하지만 최종 결정은 모집인원, 지원 인원, 경쟁률 등을 포함한 전체적인 상황에 따라 달라질 수 있으므로, 정확한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트나 입학처와 연락하여 확인하는 것이 좋습니다.
+https://ipsi.deu.ac.kr/main.do 에서 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 성적 기준을 설명하고 있지만, 원본 텍스트의 구체적인 성적 데이터와 통계치를 포함하지 않고 있습니다. 또한, "ICT융합공과대학"이라는 명칭은 원본 텍스트에 없으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 많습니다. 특히, 모집 단위와 성적 기준에 대한 설명이 원본 텍스트와 상충합니다. 원본 텍스트는 구체적인 성적 데이터를 제공하는 반면, 생성된 응답은 일반적인 성적 기준을 설명하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교 인공지능학과에 대한 정보를 제공하고 있지만, 원본 텍스트의 구체적인 성적 데이터와는 관련이 적습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 불필요하게 복잡하게 표현되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트의 흐름과 일관성이 부족합니다. 성적 기준에 대한 설명이 명확하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 성적 데이터와 통계치를 누락하고 있으며, 잘못된 정보(예: 학과 명칭)를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 다차원 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 일부 내용이 복잡하게 표현되어 있어 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.743129731553924</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>동의대학교 ICT융합공과대학 인공지능학과의 수능 일반학생전형에 대한 성적 기준을 말씀드리겠습니다. 
+인공지능학과는 나군(일반학생전형)으로 모집되며, 수능 전형성적 산출방법은 다음과 같습니다:
+- 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수  + 가산점 (수학(미적분 또는 기하) 응시자는 수학 표준점수 x 0.1)
+따라서, 인공지능학과의 수능 일반학생전형에 지원하기 위해서는:
+- 국어, 수학, 영어, 탐구 등급을 잘 받아야 합니다.
+- 수학(미적분 또는 기하) 응시자인 경우 수학 점수에 10% 가산점이 적용됩니다.
+具体的来说，你需要关注以下几个方面来准备申请东义大学ICT融合工学院的人工智能专业（一般学生入学）：
+- 国语：标准分
+- 数学：标准分，并且如果你参加了微积分或几何的考试，则你的数学成绩会额外增加10%。
+- 英语：等级分数
+- 探究：标准分
+请确保你在这些科目上取得良好的成绩。具体的分数线可能会根据每年的具体情况有所不同，因此建议你参考最近几年的实际录取数据来了解具体的要求。
+如果你需要更详细的信息或有其他问题，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 5.27 성적에 대한 충원 합격 가능성을 확인하기 위해 필요한 정보를 제공하지 않고, 일반적인 조언을 하고 있습니다. 원본 텍스트에서 제공된 구체적인 학과와 성적 정보를 반영하지 않아 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 충원 합격 가능성에 대한 구체적인 정보를 제공하지 않고 있습니다. 원본 텍스트는 특정 학과의 성적 기준을 명시하고 있지만, 생성된 응답은 이를 무시하고 일반적인 조언만을 제공합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 질문에 대한 답변을 시도하지만, 원본 텍스트에서 제공된 구체적인 정보와는 관련이 적습니다. 성적에 대한 충원 합격 가능성에 대한 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 적절성에 따라 점수가 다를 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 흐름을 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다. 주제와 관련된 정보가 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 일반적인 조언만을 제공하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서의 품질이 낮습니다. 사실성, 일관성, 관련성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 질문에 대한 직접적인 답변이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 적절성에 따라 이해도가 달라질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.5993709767443807</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 추합이 가능할지에 대한 답변은 정확한 결과를 얻기 위해서는 해당 대학의 전형 요소 반영 비율과 모집 단위별 합격 기준 점수 등을 확인해야 합니다.
+현재 제공된 정보만으로는 특정 대학에서 어떤 성적을 가지고 추합이 가능한지 알 수 없습니다. 각 대학마다 수능, 실기 등에 대한 반영 비율이 다르므로, 정확한 판단을 위해서는 해당 대학의 모집요강과 합격 기준 점수 등을 확인해 보시는 것이 좋습니다.
+만약 구체적인 정보를 원하신다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다. 또한, "https://ipsi. deu. ac. kr/main. do" 링크에서 더 많은 정보를 얻으실 수 있습니다.
+만약 추가적인 도움이 필요하시다면, 다시 질문해 주세요!</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 성적 4.2가 좋은 성적이라는 점과 합격 가능성이 있다는 점을 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 "정확한 합격 기준 점수는 제공되지 않았습니다"라는 부분은 원본 텍스트에서 명시된 평균 등급을 고려할 때 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 대체로 일관성을 유지하고 있습니다. 정시 성적 4.2가 평균 등급보다 높은 성적이라는 점을 강조하고 있으며, 합격 가능성에 대한 언급도 일관적입니다. 다만, "정확한 합격 가능성을 판단하기 위해서는 최신 합격 기준 점수를 확인해야 한다"는 부분이 다소 모순적으로 느껴질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 정시 성적 4.2에 대한 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장은 더 명확하게 연결될 수 있는 여지가 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 정시 성적 4.2에 대한 정보도 정확합니다. 그러나 "정확한 합격 기준 점수는 제공되지 않았습니다"라는 부분은 다소 애매하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 원본 텍스트와 잘 일치합니다. 그러나 일부 부분에서 모호함이 느껴질 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 "정확한 합격 기준 점수는 제공되지 않았습니다"라는 부분은 다소 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장은 더 간결하게 표현될 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.7213334502742227</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 정확한 합격 기준 점수는 제공되지 않았습니다. 하지만, 일반적으로 수능 성적과 학생부 교과성적이 중요하게 반영되는 것을 고려할 때, 정시 성적 4.2는 좋은 성적입니다.
+정시 성적 4.2는 다음과 같은 점수에 해당합니다:
+- 영어 등급: 135점 (4등급)
+이 점수로 소프트웨어공학부에 합격할 수 있는 가능성은 있습니다. 하지만, 정확한 합격 가능성을 판단하기 위해서는 동의대학교 소프트웨어공학부의 최신 합격 기준 점수를 확인해야 합니다.
+추가적으로, 동의대학교의 전형요소 반영비율을 보면 수능이 100% 반영되는 경우도 있습니다. 따라서, 정시 성적 4.2는 충분히 좋은 성적이므로 합격 가능성은 높다고 볼 수 있습니다.
+만약 더 자세한 정보가 필요하다면, 동의대학교의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교의 공식 웹사이트를 방문하여 최신 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급에 대한 정보는 포함하고 있지만, 전형 요소 반영 비율에 대한 정보는 원본 텍스트에 명시되어 있지 않은 내용입니다. 따라서 일부 사실이 정확하지 않거나 원본과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 전형 요소 반영 비율에 대한 정보는 원본 텍스트에 포함되어 있지 않아 일관성이 떨어집니다. 원본의 정보와는 다른 방향으로 설명하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부에 지원 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 평균 등급에 대한 정보는 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 전형 요소 반영 비율과 같은 정보는 원본 텍스트에 명시되어 있지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있지만, 원본 텍스트의 맥락과는 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용이지만, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.728487374529363</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92의 평균 점수를 가지고 화학환경공학부 일반 학생 전형에 지원이 가능한지 확인해보겠습니다.
+화학환경공학부 일반 학생 전형의 경우, 전형 요소 반영 비율을 살펴보면:
+- 학생부 교과: 0%
+- 출결: 0%
+- 서류: 70%
+- 면접: 30%
+- 실기: 0%
+- 수능: 0%
+이 중에서 가장 큰 비중을 차지하는 것이 서류 평가입니다. 따라서 학생부 교과 성적 외에도 다른 서류 자료들이 중요하게 작용할 것입니다.
+현재의 학생부 교과 점수가 3.92라면, 이는 좋은 성적입니다. 하지만 화학환경공학부 일반 학생 전형에 지원을 위해서는 추가적인 서류 준비가 필요합니다. 예를 들어:
+1. 자기소개서 작성
+2. 추천서 받기
+3. 활동 증빙 자료 준비
+이러한 서류들이 잘 준비되어 있다면, 3.92의 학생부 교과 점수로 지원 가능할 것으로 보입니다.
+만약 추가 정보가 필요하거나 더 자세히 조언을 원하신다면, https://ipsi. deu. ac. kr/main. do 를 참조해보시거나 대학 입학처에 문의하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 잘못된 정보를 제공합니다. 원본 텍스트에서는 4.25라는 성적이 최초합격자의 평균보다 높다고 언급하고 있지만, 생성된 응답은 이 성적이 합격 가능성이 낮다고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본에서는 4.25가 합격 가능성이 높다고 판단했으나, 생성된 응답은 반대로 낮다고 주장하여 상충하는 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용을 잘못 해석하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 이유를 제시하고 있으나, 논리적인 흐름이 다소 부족하여 일관된 주장을 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반되는 주장을 하고 있어 정확성이 낮습니다. 4.25라는 성적이 합격 가능성이 높다고 한 원본의 내용을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락을 잘못 해석하여 부적절한 결론을 내리고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6965959048177034</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>4.25라는 성적을 가지고 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능성은 높지 않을 것으로 보입니다.
+이유는 다음과 같습니다:
+1. **수능 전형성적 산출방법**: 동의대학교의 수능 전형성적 산출 방법은 국어, 수학, 영어, 탐구 중 상위 3개 영역을 반영합니다. 이 중 수학 부분에 가산점이 적용되지만, 일반적으로 고득점을 요구하는 학과에서는 높은 점수를 필요로 합니다.
+2. **최고합격자 성적 평균**: 인문사회과학대학의 중어중국학과에서 4.65라는 평균 수능 점수가 나왔습니다. 이는 일반적으로 고득점을 요구하는 학과입니다. 화학환경공학부도 비슷한 수준을 요구할 것으로 예상됩니다.
+3. **가산점**: 수학(미적분 또는 기하) 응시자의 경우 수학 표준점수에 10% 가산점이 적용되지만, 이는 고득점을 필요로 하는 학과에서는 큰 도움이 되지 않을 것입니다.
+4. **경쟁률**: 동의대학교의 경쟁률은 높을 것으로 예상됩니다. 특히 화학환경공학부와 같은 과목에서는 많은 지원자가 있을 가능성이 큽니다.
+따라서, 4.25라는 성적만으로는 합격 가능성은 낮다고 판단할 수 있습니다. 더 높은 점수를 받거나 다른 전형을 고려하는 것이 좋을 것 같습니다. 
+추가적으로, 동의대학교의 나군 학생부종합전형이나 다군 일반학생전형 등 다른 전형을 고려해보시는 것도 좋은 방법일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 영화학과의 평균 성적과 관련된 정보를 정확하게 반영하고 있으며, 4.2라는 점수가 상대적으로 높은 편이라는 점도 잘 설명하고 있습니다. 그러나 지원 인원과 충원 합격 인원에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 불확실성이 존재합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되게 연결되어 있으며, 4.2라는 점수에 대한 분석이 잘 이루어져 있습니다. 다만, 지원 인원과 경쟁률에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 질문자의 성적에 대한 합격 가능성을 분석하는 데 적절한 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 정보가 정확하지만, 지원 인원과 경쟁률에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등에서 좋은 점수를 받았습니다. 그러나 일부 정보의 출처가 불분명하여 약간의 점수를 낮추었습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 질문자가 원하는 정보를 잘 전달하고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6216396059111013</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 제공된 데이터를 바탕으로 분석해보겠습니다.
+영화학과의 경우, 지원 인원이 11명이고 충원 합격인원이 6명입니다. 경쟁률은 약 1.85로 보이며, 이는 상대적으로 낮은 편입니다. 또한, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 286.77이고, 영어 등급의 평균이 3.66으로 보았을 때, 4.2라는 성적이 상대적으로 높은 편입니다.
+그러나 합격 여부는 단순히 점수만으로 결정되는 것이 아닙니다. 면접 평가 결과와 서류 평가 결과도 중요한 요소로 작용합니다. 따라서, 4.2라는 성적을 가지고 있다면, 이에 더해 면접에서 좋은 평가를 받고, 서류평가에서도 학업역량과 전공적합성 등을 잘 보여준다면 합격 가능성은 높아질 것입니다.
+만약 자세한 정보나 추가적인 도움이 필요하시다면, "https://ipsi.deu.ac.kr/main.do"를 참조해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 문장도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 내용이 원본의 정보와 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.9352936288478561</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 따라 개별면접이 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
